--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b866b217d0e5359/Área de Trabalho/Insper/2o semestre/Ciência dos Dados/Projeto 1/22-2b-cd-p1-grupo_joaoogp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="11_0E52C07A0BD0BD59477FC981014A15F3C8EC184E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1B6939-CB3A-4F35-A1FB-76B02958E7CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFCFE07-6B38-4DB7-9263-61A542C365A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17706,7 +17706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17716,6 +17716,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -17758,14 +17766,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18106,8 +18115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="L391" sqref="L391"/>
+    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
+      <selection activeCell="K803" sqref="K803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26166,6 +26175,9 @@
       <c r="E402">
         <v>81</v>
       </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
@@ -26183,6 +26195,9 @@
       <c r="E403">
         <v>98</v>
       </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
@@ -26200,6 +26215,9 @@
       <c r="E404">
         <v>52</v>
       </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
@@ -26217,6 +26235,9 @@
       <c r="E405">
         <v>55</v>
       </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
@@ -26234,6 +26255,9 @@
       <c r="E406">
         <v>61</v>
       </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
@@ -26251,6 +26275,9 @@
       <c r="E407">
         <v>89</v>
       </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
@@ -26268,6 +26295,9 @@
       <c r="E408">
         <v>19</v>
       </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
@@ -26285,6 +26315,9 @@
       <c r="E409">
         <v>50</v>
       </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
@@ -26302,6 +26335,9 @@
       <c r="E410">
         <v>26</v>
       </c>
+      <c r="F410">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
@@ -26319,6 +26355,9 @@
       <c r="E411">
         <v>35</v>
       </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
@@ -26336,6 +26375,9 @@
       <c r="E412">
         <v>34</v>
       </c>
+      <c r="F412">
+        <v>2</v>
+      </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
@@ -26353,6 +26395,9 @@
       <c r="E413">
         <v>6</v>
       </c>
+      <c r="F413">
+        <v>2</v>
+      </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
@@ -26370,6 +26415,9 @@
       <c r="E414">
         <v>24</v>
       </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
@@ -26387,6 +26435,9 @@
       <c r="E415">
         <v>20</v>
       </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
@@ -26404,8 +26455,11 @@
       <c r="E416">
         <v>72</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>6</v>
       </c>
@@ -26421,8 +26475,11 @@
       <c r="E417">
         <v>43</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>6</v>
       </c>
@@ -26438,8 +26495,11 @@
       <c r="E418">
         <v>10</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>6</v>
       </c>
@@ -26455,8 +26515,11 @@
       <c r="E419">
         <v>53</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>6</v>
       </c>
@@ -26472,8 +26535,11 @@
       <c r="E420">
         <v>85</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>6</v>
       </c>
@@ -26489,8 +26555,11 @@
       <c r="E421">
         <v>11</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>6</v>
       </c>
@@ -26506,8 +26575,11 @@
       <c r="E422">
         <v>10</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -26523,8 +26595,11 @@
       <c r="E423">
         <v>71</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>6</v>
       </c>
@@ -26540,8 +26615,11 @@
       <c r="E424">
         <v>23</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -26557,8 +26635,11 @@
       <c r="E425">
         <v>39</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>6</v>
       </c>
@@ -26574,8 +26655,11 @@
       <c r="E426">
         <v>73</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>6</v>
       </c>
@@ -26591,8 +26675,11 @@
       <c r="E427">
         <v>35</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>6</v>
       </c>
@@ -26608,8 +26695,11 @@
       <c r="E428">
         <v>52</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>6</v>
       </c>
@@ -26625,8 +26715,11 @@
       <c r="E429">
         <v>91</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>6</v>
       </c>
@@ -26642,8 +26735,11 @@
       <c r="E430">
         <v>82</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>6</v>
       </c>
@@ -26659,8 +26755,11 @@
       <c r="E431">
         <v>54</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>6</v>
       </c>
@@ -26676,8 +26775,11 @@
       <c r="E432">
         <v>19</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>6</v>
       </c>
@@ -26693,8 +26795,11 @@
       <c r="E433">
         <v>59</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>6</v>
       </c>
@@ -26710,8 +26815,11 @@
       <c r="E434">
         <v>67</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -26727,8 +26835,11 @@
       <c r="E435">
         <v>72</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>6</v>
       </c>
@@ -26744,8 +26855,11 @@
       <c r="E436">
         <v>45</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>6</v>
       </c>
@@ -26761,8 +26875,11 @@
       <c r="E437">
         <v>47</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -26778,8 +26895,11 @@
       <c r="E438">
         <v>23</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>6</v>
       </c>
@@ -26795,8 +26915,11 @@
       <c r="E439">
         <v>75</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -26812,8 +26935,11 @@
       <c r="E440">
         <v>6</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>6</v>
       </c>
@@ -26829,8 +26955,11 @@
       <c r="E441">
         <v>77</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>6</v>
       </c>
@@ -26846,8 +26975,11 @@
       <c r="E442">
         <v>17</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>6</v>
       </c>
@@ -26863,8 +26995,11 @@
       <c r="E443">
         <v>80</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>6</v>
       </c>
@@ -26880,8 +27015,11 @@
       <c r="E444">
         <v>7</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -26897,8 +27035,11 @@
       <c r="E445">
         <v>69</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>6</v>
       </c>
@@ -26914,8 +27055,11 @@
       <c r="E446">
         <v>94</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>6</v>
       </c>
@@ -26931,8 +27075,11 @@
       <c r="E447">
         <v>49</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>6</v>
       </c>
@@ -26948,8 +27095,11 @@
       <c r="E448">
         <v>46</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>6</v>
       </c>
@@ -26965,8 +27115,11 @@
       <c r="E449">
         <v>96</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>6</v>
       </c>
@@ -26982,8 +27135,11 @@
       <c r="E450">
         <v>16</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>6</v>
       </c>
@@ -26999,8 +27155,11 @@
       <c r="E451">
         <v>91</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>6</v>
       </c>
@@ -27016,8 +27175,11 @@
       <c r="E452">
         <v>79</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>6</v>
       </c>
@@ -27033,8 +27195,11 @@
       <c r="E453">
         <v>63</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>6</v>
       </c>
@@ -27050,8 +27215,11 @@
       <c r="E454">
         <v>22</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>6</v>
       </c>
@@ -27067,8 +27235,11 @@
       <c r="E455">
         <v>23</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>6</v>
       </c>
@@ -27084,8 +27255,11 @@
       <c r="E456">
         <v>60</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -27101,8 +27275,11 @@
       <c r="E457">
         <v>81</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>6</v>
       </c>
@@ -27118,8 +27295,11 @@
       <c r="E458">
         <v>43</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>6</v>
       </c>
@@ -27135,8 +27315,11 @@
       <c r="E459">
         <v>46</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>6</v>
       </c>
@@ -27152,8 +27335,11 @@
       <c r="E460">
         <v>12</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>6</v>
       </c>
@@ -27169,8 +27355,11 @@
       <c r="E461">
         <v>62</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>6</v>
       </c>
@@ -27186,8 +27375,11 @@
       <c r="E462">
         <v>88</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>6</v>
       </c>
@@ -27203,8 +27395,11 @@
       <c r="E463">
         <v>31</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>6</v>
       </c>
@@ -27220,8 +27415,11 @@
       <c r="E464">
         <v>28</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>6</v>
       </c>
@@ -27237,8 +27435,11 @@
       <c r="E465">
         <v>56</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>6</v>
       </c>
@@ -27254,8 +27455,11 @@
       <c r="E466">
         <v>24</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>6</v>
       </c>
@@ -27271,8 +27475,11 @@
       <c r="E467">
         <v>93</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>6</v>
       </c>
@@ -27288,8 +27495,11 @@
       <c r="E468">
         <v>17</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>6</v>
       </c>
@@ -27305,8 +27515,11 @@
       <c r="E469">
         <v>36</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>6</v>
       </c>
@@ -27322,8 +27535,11 @@
       <c r="E470">
         <v>33</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -27339,8 +27555,11 @@
       <c r="E471">
         <v>97</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>6</v>
       </c>
@@ -27356,8 +27575,11 @@
       <c r="E472">
         <v>62</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>6</v>
       </c>
@@ -27373,8 +27595,11 @@
       <c r="E473">
         <v>54</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>6</v>
       </c>
@@ -27390,8 +27615,11 @@
       <c r="E474">
         <v>20</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>6</v>
       </c>
@@ -27407,8 +27635,11 @@
       <c r="E475">
         <v>52</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>6</v>
       </c>
@@ -27424,8 +27655,11 @@
       <c r="E476">
         <v>54</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>6</v>
       </c>
@@ -27441,8 +27675,11 @@
       <c r="E477">
         <v>63</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>6</v>
       </c>
@@ -27458,8 +27695,11 @@
       <c r="E478">
         <v>33</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>6</v>
       </c>
@@ -27475,8 +27715,11 @@
       <c r="E479">
         <v>35</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>6</v>
       </c>
@@ -27492,8 +27735,11 @@
       <c r="E480">
         <v>30</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>6</v>
       </c>
@@ -27509,8 +27755,11 @@
       <c r="E481">
         <v>30</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>6</v>
       </c>
@@ -27526,8 +27775,11 @@
       <c r="E482">
         <v>96</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>6</v>
       </c>
@@ -27543,8 +27795,11 @@
       <c r="E483">
         <v>30</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>6</v>
       </c>
@@ -27560,8 +27815,11 @@
       <c r="E484">
         <v>8</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>6</v>
       </c>
@@ -27577,8 +27835,11 @@
       <c r="E485">
         <v>46</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>6</v>
       </c>
@@ -27594,8 +27855,11 @@
       <c r="E486">
         <v>20</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -27611,8 +27875,11 @@
       <c r="E487">
         <v>31</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>6</v>
       </c>
@@ -27628,8 +27895,11 @@
       <c r="E488">
         <v>87</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>6</v>
       </c>
@@ -27645,8 +27915,11 @@
       <c r="E489">
         <v>16</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -27662,8 +27935,11 @@
       <c r="E490">
         <v>60</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>6</v>
       </c>
@@ -27679,8 +27955,11 @@
       <c r="E491">
         <v>21</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>6</v>
       </c>
@@ -27696,8 +27975,11 @@
       <c r="E492">
         <v>83</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>6</v>
       </c>
@@ -27713,8 +27995,11 @@
       <c r="E493">
         <v>17</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>6</v>
       </c>
@@ -27730,8 +28015,11 @@
       <c r="E494">
         <v>82</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>6</v>
       </c>
@@ -27747,8 +28035,11 @@
       <c r="E495">
         <v>89</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>6</v>
       </c>
@@ -27764,8 +28055,11 @@
       <c r="E496">
         <v>12</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>6</v>
       </c>
@@ -27781,8 +28075,11 @@
       <c r="E497">
         <v>78</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>6</v>
       </c>
@@ -27798,8 +28095,11 @@
       <c r="E498">
         <v>58</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>6</v>
       </c>
@@ -27815,8 +28115,11 @@
       <c r="E499">
         <v>9</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>6</v>
       </c>
@@ -27832,8 +28135,11 @@
       <c r="E500">
         <v>24</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>6</v>
       </c>
@@ -27849,8 +28155,11 @@
       <c r="E501">
         <v>84</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>6</v>
       </c>
@@ -27866,8 +28175,11 @@
       <c r="E502">
         <v>89</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>6</v>
       </c>
@@ -27883,8 +28195,11 @@
       <c r="E503">
         <v>69</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>6</v>
       </c>
@@ -27900,8 +28215,11 @@
       <c r="E504">
         <v>12</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>6</v>
       </c>
@@ -27917,8 +28235,11 @@
       <c r="E505">
         <v>93</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -27934,8 +28255,11 @@
       <c r="E506">
         <v>30</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>6</v>
       </c>
@@ -27951,8 +28275,11 @@
       <c r="E507">
         <v>70</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -27968,8 +28295,11 @@
       <c r="E508">
         <v>95</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>6</v>
       </c>
@@ -27985,8 +28315,11 @@
       <c r="E509">
         <v>48</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>6</v>
       </c>
@@ -28002,8 +28335,11 @@
       <c r="E510">
         <v>93</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>6</v>
       </c>
@@ -28019,8 +28355,11 @@
       <c r="E511">
         <v>14</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>6</v>
       </c>
@@ -28036,8 +28375,11 @@
       <c r="E512">
         <v>96</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>6</v>
       </c>
@@ -28053,8 +28395,11 @@
       <c r="E513">
         <v>90</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>6</v>
       </c>
@@ -28070,8 +28415,11 @@
       <c r="E514">
         <v>89</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>6</v>
       </c>
@@ -28087,8 +28435,11 @@
       <c r="E515">
         <v>67</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>6</v>
       </c>
@@ -28104,8 +28455,11 @@
       <c r="E516">
         <v>76</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>6</v>
       </c>
@@ -28121,8 +28475,11 @@
       <c r="E517">
         <v>49</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>6</v>
       </c>
@@ -28138,8 +28495,11 @@
       <c r="E518">
         <v>49</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>6</v>
       </c>
@@ -28155,8 +28515,11 @@
       <c r="E519">
         <v>16</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>6</v>
       </c>
@@ -28172,8 +28535,11 @@
       <c r="E520">
         <v>100</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>6</v>
       </c>
@@ -28189,8 +28555,11 @@
       <c r="E521">
         <v>10</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>6</v>
       </c>
@@ -28206,8 +28575,11 @@
       <c r="E522">
         <v>16</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>6</v>
       </c>
@@ -28223,8 +28595,11 @@
       <c r="E523">
         <v>89</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>6</v>
       </c>
@@ -28240,8 +28615,11 @@
       <c r="E524">
         <v>54</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>6</v>
       </c>
@@ -28257,8 +28635,11 @@
       <c r="E525">
         <v>3</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -28274,8 +28655,11 @@
       <c r="E526">
         <v>35</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>6</v>
       </c>
@@ -28291,8 +28675,11 @@
       <c r="E527">
         <v>94</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>6</v>
       </c>
@@ -28308,8 +28695,11 @@
       <c r="E528">
         <v>90</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>6</v>
       </c>
@@ -28325,8 +28715,11 @@
       <c r="E529">
         <v>59</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>6</v>
       </c>
@@ -28342,8 +28735,11 @@
       <c r="E530">
         <v>95</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>6</v>
       </c>
@@ -28359,8 +28755,11 @@
       <c r="E531">
         <v>37</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>6</v>
       </c>
@@ -28376,8 +28775,11 @@
       <c r="E532">
         <v>75</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>6</v>
       </c>
@@ -28393,8 +28795,11 @@
       <c r="E533">
         <v>95</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>6</v>
       </c>
@@ -28410,8 +28815,11 @@
       <c r="E534">
         <v>89</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>6</v>
       </c>
@@ -28427,8 +28835,11 @@
       <c r="E535">
         <v>83</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>6</v>
       </c>
@@ -28444,8 +28855,11 @@
       <c r="E536">
         <v>42</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>6</v>
       </c>
@@ -28461,8 +28875,11 @@
       <c r="E537">
         <v>70</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>6</v>
       </c>
@@ -28478,8 +28895,11 @@
       <c r="E538">
         <v>6</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>6</v>
       </c>
@@ -28495,8 +28915,11 @@
       <c r="E539">
         <v>77</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>6</v>
       </c>
@@ -28512,8 +28935,11 @@
       <c r="E540">
         <v>56</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>6</v>
       </c>
@@ -28529,8 +28955,11 @@
       <c r="E541">
         <v>45</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>6</v>
       </c>
@@ -28546,8 +28975,11 @@
       <c r="E542">
         <v>78</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>6</v>
       </c>
@@ -28563,8 +28995,11 @@
       <c r="E543">
         <v>57</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>6</v>
       </c>
@@ -28580,8 +29015,11 @@
       <c r="E544">
         <v>77</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>6</v>
       </c>
@@ -28597,8 +29035,11 @@
       <c r="E545">
         <v>83</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -28614,8 +29055,11 @@
       <c r="E546">
         <v>42</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>6</v>
       </c>
@@ -28631,8 +29075,11 @@
       <c r="E547">
         <v>64</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>6</v>
       </c>
@@ -28648,8 +29095,11 @@
       <c r="E548">
         <v>29</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>6</v>
       </c>
@@ -28665,8 +29115,11 @@
       <c r="E549">
         <v>15</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>6</v>
       </c>
@@ -28682,8 +29135,11 @@
       <c r="E550">
         <v>84</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>6</v>
       </c>
@@ -28699,8 +29155,11 @@
       <c r="E551">
         <v>16</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>6</v>
       </c>
@@ -28716,8 +29175,11 @@
       <c r="E552">
         <v>30</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>6</v>
       </c>
@@ -28733,8 +29195,11 @@
       <c r="E553">
         <v>55</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>6</v>
       </c>
@@ -28750,8 +29215,11 @@
       <c r="E554">
         <v>85</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>6</v>
       </c>
@@ -28767,8 +29235,11 @@
       <c r="E555">
         <v>74</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>6</v>
       </c>
@@ -28784,8 +29255,11 @@
       <c r="E556">
         <v>68</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>6</v>
       </c>
@@ -28801,8 +29275,11 @@
       <c r="E557">
         <v>81</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>6</v>
       </c>
@@ -28818,8 +29295,11 @@
       <c r="E558">
         <v>49</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>6</v>
       </c>
@@ -28835,8 +29315,11 @@
       <c r="E559">
         <v>68</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -28852,8 +29335,11 @@
       <c r="E560">
         <v>45</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>6</v>
       </c>
@@ -28869,8 +29355,11 @@
       <c r="E561">
         <v>9</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>6</v>
       </c>
@@ -28886,8 +29375,11 @@
       <c r="E562">
         <v>76</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>6</v>
       </c>
@@ -28903,8 +29395,11 @@
       <c r="E563">
         <v>52</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>6</v>
       </c>
@@ -28920,8 +29415,11 @@
       <c r="E564">
         <v>32</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>6</v>
       </c>
@@ -28937,8 +29435,11 @@
       <c r="E565">
         <v>94</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>6</v>
       </c>
@@ -28954,8 +29455,11 @@
       <c r="E566">
         <v>2</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>6</v>
       </c>
@@ -28971,8 +29475,11 @@
       <c r="E567">
         <v>92</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -28988,8 +29495,11 @@
       <c r="E568">
         <v>79</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>6</v>
       </c>
@@ -29005,8 +29515,11 @@
       <c r="E569">
         <v>90</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>6</v>
       </c>
@@ -29022,8 +29535,11 @@
       <c r="E570">
         <v>93</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>6</v>
       </c>
@@ -29039,8 +29555,11 @@
       <c r="E571">
         <v>99</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -29056,8 +29575,11 @@
       <c r="E572">
         <v>31</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>6</v>
       </c>
@@ -29073,8 +29595,11 @@
       <c r="E573">
         <v>36</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>6</v>
       </c>
@@ -29090,8 +29615,11 @@
       <c r="E574">
         <v>100</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>6</v>
       </c>
@@ -29107,8 +29635,11 @@
       <c r="E575">
         <v>73</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>6</v>
       </c>
@@ -29124,8 +29655,11 @@
       <c r="E576">
         <v>69</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>6</v>
       </c>
@@ -29141,8 +29675,11 @@
       <c r="E577">
         <v>30</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>6</v>
       </c>
@@ -29158,8 +29695,11 @@
       <c r="E578">
         <v>2</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -29175,8 +29715,11 @@
       <c r="E579">
         <v>26</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>6</v>
       </c>
@@ -29192,8 +29735,11 @@
       <c r="E580">
         <v>37</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>6</v>
       </c>
@@ -29209,8 +29755,11 @@
       <c r="E581">
         <v>11</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>6</v>
       </c>
@@ -29226,8 +29775,11 @@
       <c r="E582">
         <v>61</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>6</v>
       </c>
@@ -29243,8 +29795,11 @@
       <c r="E583">
         <v>80</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>6</v>
       </c>
@@ -29260,8 +29815,11 @@
       <c r="E584">
         <v>26</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>6</v>
       </c>
@@ -29277,8 +29835,11 @@
       <c r="E585">
         <v>63</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>6</v>
       </c>
@@ -29294,8 +29855,11 @@
       <c r="E586">
         <v>100</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>6</v>
       </c>
@@ -29311,8 +29875,11 @@
       <c r="E587">
         <v>10</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>6</v>
       </c>
@@ -29328,8 +29895,11 @@
       <c r="E588">
         <v>6</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>6</v>
       </c>
@@ -29345,8 +29915,11 @@
       <c r="E589">
         <v>73</v>
       </c>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>6</v>
       </c>
@@ -29362,8 +29935,11 @@
       <c r="E590">
         <v>48</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>6</v>
       </c>
@@ -29379,8 +29955,11 @@
       <c r="E591">
         <v>50</v>
       </c>
-    </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>6</v>
       </c>
@@ -29396,8 +29975,11 @@
       <c r="E592">
         <v>47</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>6</v>
       </c>
@@ -29413,8 +29995,11 @@
       <c r="E593">
         <v>61</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -29430,8 +30015,11 @@
       <c r="E594">
         <v>80</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>6</v>
       </c>
@@ -29447,8 +30035,11 @@
       <c r="E595">
         <v>56</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>6</v>
       </c>
@@ -29464,8 +30055,11 @@
       <c r="E596">
         <v>8</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>6</v>
       </c>
@@ -29481,8 +30075,11 @@
       <c r="E597">
         <v>20</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>6</v>
       </c>
@@ -29498,8 +30095,11 @@
       <c r="E598">
         <v>96</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>6</v>
       </c>
@@ -29515,8 +30115,11 @@
       <c r="E599">
         <v>49</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>6</v>
       </c>
@@ -29532,8 +30135,11 @@
       <c r="E600">
         <v>55</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F600">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>6</v>
       </c>
@@ -29549,8 +30155,11 @@
       <c r="E601">
         <v>57</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>6</v>
       </c>
@@ -29566,8 +30175,11 @@
       <c r="E602">
         <v>53</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>6</v>
       </c>
@@ -29583,8 +30195,11 @@
       <c r="E603">
         <v>50</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>6</v>
       </c>
@@ -29600,8 +30215,11 @@
       <c r="E604">
         <v>48</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>6</v>
       </c>
@@ -29617,8 +30235,11 @@
       <c r="E605">
         <v>15</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>6</v>
       </c>
@@ -29634,8 +30255,11 @@
       <c r="E606">
         <v>29</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F606">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>6</v>
       </c>
@@ -29651,8 +30275,11 @@
       <c r="E607">
         <v>47</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>6</v>
       </c>
@@ -29668,8 +30295,11 @@
       <c r="E608">
         <v>54</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>6</v>
       </c>
@@ -29685,8 +30315,11 @@
       <c r="E609">
         <v>95</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>6</v>
       </c>
@@ -29702,8 +30335,11 @@
       <c r="E610">
         <v>14</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>6</v>
       </c>
@@ -29719,8 +30355,11 @@
       <c r="E611">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>6</v>
       </c>
@@ -29736,8 +30375,11 @@
       <c r="E612">
         <v>3</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>6</v>
       </c>
@@ -29753,8 +30395,11 @@
       <c r="E613">
         <v>52</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>6</v>
       </c>
@@ -29770,8 +30415,11 @@
       <c r="E614">
         <v>80</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>6</v>
       </c>
@@ -29787,8 +30435,11 @@
       <c r="E615">
         <v>6</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>6</v>
       </c>
@@ -29804,8 +30455,11 @@
       <c r="E616">
         <v>70</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>6</v>
       </c>
@@ -29821,8 +30475,11 @@
       <c r="E617">
         <v>60</v>
       </c>
-    </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>6</v>
       </c>
@@ -29838,8 +30495,11 @@
       <c r="E618">
         <v>53</v>
       </c>
-    </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>6</v>
       </c>
@@ -29855,8 +30515,11 @@
       <c r="E619">
         <v>65</v>
       </c>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>6</v>
       </c>
@@ -29872,8 +30535,11 @@
       <c r="E620">
         <v>34</v>
       </c>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>6</v>
       </c>
@@ -29889,8 +30555,11 @@
       <c r="E621">
         <v>33</v>
       </c>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>6</v>
       </c>
@@ -29906,8 +30575,11 @@
       <c r="E622">
         <v>79</v>
       </c>
-    </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>6</v>
       </c>
@@ -29923,8 +30595,11 @@
       <c r="E623">
         <v>47</v>
       </c>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>6</v>
       </c>
@@ -29940,8 +30615,11 @@
       <c r="E624">
         <v>42</v>
       </c>
-    </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>6</v>
       </c>
@@ -29957,8 +30635,11 @@
       <c r="E625">
         <v>38</v>
       </c>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>6</v>
       </c>
@@ -29974,8 +30655,11 @@
       <c r="E626">
         <v>70</v>
       </c>
-    </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>6</v>
       </c>
@@ -29991,8 +30675,11 @@
       <c r="E627">
         <v>65</v>
       </c>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>6</v>
       </c>
@@ -30008,8 +30695,11 @@
       <c r="E628">
         <v>39</v>
       </c>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>6</v>
       </c>
@@ -30025,8 +30715,11 @@
       <c r="E629">
         <v>70</v>
       </c>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>6</v>
       </c>
@@ -30042,8 +30735,11 @@
       <c r="E630">
         <v>46</v>
       </c>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>6</v>
       </c>
@@ -30059,8 +30755,11 @@
       <c r="E631">
         <v>70</v>
       </c>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>6</v>
       </c>
@@ -30076,8 +30775,11 @@
       <c r="E632">
         <v>46</v>
       </c>
-    </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>6</v>
       </c>
@@ -30093,8 +30795,11 @@
       <c r="E633">
         <v>36</v>
       </c>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>6</v>
       </c>
@@ -30110,8 +30815,11 @@
       <c r="E634">
         <v>62</v>
       </c>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>6</v>
       </c>
@@ -30127,8 +30835,11 @@
       <c r="E635">
         <v>98</v>
       </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>6</v>
       </c>
@@ -30144,8 +30855,11 @@
       <c r="E636">
         <v>38</v>
       </c>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>6</v>
       </c>
@@ -30161,8 +30875,11 @@
       <c r="E637">
         <v>84</v>
       </c>
-    </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>6</v>
       </c>
@@ -30178,8 +30895,11 @@
       <c r="E638">
         <v>22</v>
       </c>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>6</v>
       </c>
@@ -30195,8 +30915,11 @@
       <c r="E639">
         <v>5</v>
       </c>
-    </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>6</v>
       </c>
@@ -30212,8 +30935,11 @@
       <c r="E640">
         <v>26</v>
       </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>6</v>
       </c>
@@ -30229,8 +30955,11 @@
       <c r="E641">
         <v>19</v>
       </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>6</v>
       </c>
@@ -30246,8 +30975,11 @@
       <c r="E642">
         <v>78</v>
       </c>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>6</v>
       </c>
@@ -30263,8 +30995,11 @@
       <c r="E643">
         <v>25</v>
       </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>6</v>
       </c>
@@ -30280,8 +31015,11 @@
       <c r="E644">
         <v>65</v>
       </c>
-    </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>6</v>
       </c>
@@ -30297,8 +31035,11 @@
       <c r="E645">
         <v>30</v>
       </c>
-    </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>6</v>
       </c>
@@ -30314,8 +31055,11 @@
       <c r="E646">
         <v>2</v>
       </c>
-    </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>6</v>
       </c>
@@ -30331,8 +31075,11 @@
       <c r="E647">
         <v>25</v>
       </c>
-    </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>6</v>
       </c>
@@ -30348,8 +31095,11 @@
       <c r="E648">
         <v>79</v>
       </c>
-    </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>6</v>
       </c>
@@ -30365,8 +31115,11 @@
       <c r="E649">
         <v>30</v>
       </c>
-    </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>6</v>
       </c>
@@ -30382,8 +31135,11 @@
       <c r="E650">
         <v>47</v>
       </c>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>6</v>
       </c>
@@ -30399,8 +31155,11 @@
       <c r="E651">
         <v>90</v>
       </c>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>6</v>
       </c>
@@ -30416,8 +31175,11 @@
       <c r="E652">
         <v>37</v>
       </c>
-    </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>6</v>
       </c>
@@ -30433,8 +31195,11 @@
       <c r="E653">
         <v>61</v>
       </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>6</v>
       </c>
@@ -30450,8 +31215,11 @@
       <c r="E654">
         <v>53</v>
       </c>
-    </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>6</v>
       </c>
@@ -30467,8 +31235,11 @@
       <c r="E655">
         <v>41</v>
       </c>
-    </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>6</v>
       </c>
@@ -30484,8 +31255,11 @@
       <c r="E656">
         <v>19</v>
       </c>
-    </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>6</v>
       </c>
@@ -30501,8 +31275,11 @@
       <c r="E657">
         <v>84</v>
       </c>
-    </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>6</v>
       </c>
@@ -30518,8 +31295,11 @@
       <c r="E658">
         <v>31</v>
       </c>
-    </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>6</v>
       </c>
@@ -30535,8 +31315,11 @@
       <c r="E659">
         <v>40</v>
       </c>
-    </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>6</v>
       </c>
@@ -30552,8 +31335,11 @@
       <c r="E660">
         <v>7</v>
       </c>
-    </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>6</v>
       </c>
@@ -30569,8 +31355,11 @@
       <c r="E661">
         <v>76</v>
       </c>
-    </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>6</v>
       </c>
@@ -30586,8 +31375,11 @@
       <c r="E662">
         <v>94</v>
       </c>
-    </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>6</v>
       </c>
@@ -30603,8 +31395,11 @@
       <c r="E663">
         <v>89</v>
       </c>
-    </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>6</v>
       </c>
@@ -30620,8 +31415,11 @@
       <c r="E664">
         <v>30</v>
       </c>
-    </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>6</v>
       </c>
@@ -30637,8 +31435,11 @@
       <c r="E665">
         <v>76</v>
       </c>
-    </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>6</v>
       </c>
@@ -30654,8 +31455,11 @@
       <c r="E666">
         <v>15</v>
       </c>
-    </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>6</v>
       </c>
@@ -30671,8 +31475,11 @@
       <c r="E667">
         <v>33</v>
       </c>
-    </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>6</v>
       </c>
@@ -30688,8 +31495,11 @@
       <c r="E668">
         <v>27</v>
       </c>
-    </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>6</v>
       </c>
@@ -30705,8 +31515,11 @@
       <c r="E669">
         <v>44</v>
       </c>
-    </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>6</v>
       </c>
@@ -30722,8 +31535,11 @@
       <c r="E670">
         <v>2</v>
       </c>
-    </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>6</v>
       </c>
@@ -30739,8 +31555,11 @@
       <c r="E671">
         <v>58</v>
       </c>
-    </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>6</v>
       </c>
@@ -30756,8 +31575,11 @@
       <c r="E672">
         <v>43</v>
       </c>
-    </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>6</v>
       </c>
@@ -30773,8 +31595,11 @@
       <c r="E673">
         <v>59</v>
       </c>
-    </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F673">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>6</v>
       </c>
@@ -30790,8 +31615,11 @@
       <c r="E674">
         <v>52</v>
       </c>
-    </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>6</v>
       </c>
@@ -30807,8 +31635,11 @@
       <c r="E675">
         <v>43</v>
       </c>
-    </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>6</v>
       </c>
@@ -30824,8 +31655,11 @@
       <c r="E676">
         <v>7</v>
       </c>
-    </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>6</v>
       </c>
@@ -30841,8 +31675,11 @@
       <c r="E677">
         <v>6</v>
       </c>
-    </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>6</v>
       </c>
@@ -30858,8 +31695,11 @@
       <c r="E678">
         <v>43</v>
       </c>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>6</v>
       </c>
@@ -30875,8 +31715,11 @@
       <c r="E679">
         <v>92</v>
       </c>
-    </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>6</v>
       </c>
@@ -30892,8 +31735,11 @@
       <c r="E680">
         <v>14</v>
       </c>
-    </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>6</v>
       </c>
@@ -30909,8 +31755,11 @@
       <c r="E681">
         <v>44</v>
       </c>
-    </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>6</v>
       </c>
@@ -30926,8 +31775,11 @@
       <c r="E682">
         <v>18</v>
       </c>
-    </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>6</v>
       </c>
@@ -30943,8 +31795,11 @@
       <c r="E683">
         <v>51</v>
       </c>
-    </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F683">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>6</v>
       </c>
@@ -30960,8 +31815,11 @@
       <c r="E684">
         <v>91</v>
       </c>
-    </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>6</v>
       </c>
@@ -30977,8 +31835,11 @@
       <c r="E685">
         <v>22</v>
       </c>
-    </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>6</v>
       </c>
@@ -30994,8 +31855,11 @@
       <c r="E686">
         <v>96</v>
       </c>
-    </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F686">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>6</v>
       </c>
@@ -31011,8 +31875,11 @@
       <c r="E687">
         <v>26</v>
       </c>
-    </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>6</v>
       </c>
@@ -31028,8 +31895,11 @@
       <c r="E688">
         <v>10</v>
       </c>
-    </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>6</v>
       </c>
@@ -31045,8 +31915,11 @@
       <c r="E689">
         <v>45</v>
       </c>
-    </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>6</v>
       </c>
@@ -31062,8 +31935,11 @@
       <c r="E690">
         <v>19</v>
       </c>
-    </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>6</v>
       </c>
@@ -31079,8 +31955,11 @@
       <c r="E691">
         <v>94</v>
       </c>
-    </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>6</v>
       </c>
@@ -31096,8 +31975,11 @@
       <c r="E692">
         <v>96</v>
       </c>
-    </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>6</v>
       </c>
@@ -31113,8 +31995,11 @@
       <c r="E693">
         <v>2</v>
       </c>
-    </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>6</v>
       </c>
@@ -31130,8 +32015,11 @@
       <c r="E694">
         <v>9</v>
       </c>
-    </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>6</v>
       </c>
@@ -31147,8 +32035,11 @@
       <c r="E695">
         <v>17</v>
       </c>
-    </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>6</v>
       </c>
@@ -31164,8 +32055,11 @@
       <c r="E696">
         <v>27</v>
       </c>
-    </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>6</v>
       </c>
@@ -31181,8 +32075,11 @@
       <c r="E697">
         <v>26</v>
       </c>
-    </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>6</v>
       </c>
@@ -31198,8 +32095,11 @@
       <c r="E698">
         <v>37</v>
       </c>
-    </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>6</v>
       </c>
@@ -31215,8 +32115,11 @@
       <c r="E699">
         <v>15</v>
       </c>
-    </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>6</v>
       </c>
@@ -31232,8 +32135,11 @@
       <c r="E700">
         <v>16</v>
       </c>
-    </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>6</v>
       </c>
@@ -31249,8 +32155,11 @@
       <c r="E701">
         <v>49</v>
       </c>
-    </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>6</v>
       </c>
@@ -31266,8 +32175,11 @@
       <c r="E702">
         <v>9</v>
       </c>
-    </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>6</v>
       </c>
@@ -31283,8 +32195,11 @@
       <c r="E703">
         <v>37</v>
       </c>
-    </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>6</v>
       </c>
@@ -31300,8 +32215,11 @@
       <c r="E704">
         <v>48</v>
       </c>
-    </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>6</v>
       </c>
@@ -31317,8 +32235,11 @@
       <c r="E705">
         <v>84</v>
       </c>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>6</v>
       </c>
@@ -31334,8 +32255,11 @@
       <c r="E706">
         <v>79</v>
       </c>
-    </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>6</v>
       </c>
@@ -31351,8 +32275,11 @@
       <c r="E707">
         <v>36</v>
       </c>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>6</v>
       </c>
@@ -31368,8 +32295,11 @@
       <c r="E708">
         <v>27</v>
       </c>
-    </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>6</v>
       </c>
@@ -31385,8 +32315,11 @@
       <c r="E709">
         <v>96</v>
       </c>
-    </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>6</v>
       </c>
@@ -31402,8 +32335,11 @@
       <c r="E710">
         <v>57</v>
       </c>
-    </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>6</v>
       </c>
@@ -31419,8 +32355,11 @@
       <c r="E711">
         <v>64</v>
       </c>
-    </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>6</v>
       </c>
@@ -31436,8 +32375,11 @@
       <c r="E712">
         <v>40</v>
       </c>
-    </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>6</v>
       </c>
@@ -31453,8 +32395,11 @@
       <c r="E713">
         <v>57</v>
       </c>
-    </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>6</v>
       </c>
@@ -31470,8 +32415,11 @@
       <c r="E714">
         <v>65</v>
       </c>
-    </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>6</v>
       </c>
@@ -31487,8 +32435,11 @@
       <c r="E715">
         <v>66</v>
       </c>
-    </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>6</v>
       </c>
@@ -31504,8 +32455,11 @@
       <c r="E716">
         <v>90</v>
       </c>
-    </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>6</v>
       </c>
@@ -31521,8 +32475,11 @@
       <c r="E717">
         <v>70</v>
       </c>
-    </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>6</v>
       </c>
@@ -31538,8 +32495,11 @@
       <c r="E718">
         <v>18</v>
       </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>6</v>
       </c>
@@ -31555,8 +32515,11 @@
       <c r="E719">
         <v>87</v>
       </c>
-    </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>6</v>
       </c>
@@ -31572,8 +32535,11 @@
       <c r="E720">
         <v>75</v>
       </c>
-    </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>6</v>
       </c>
@@ -31589,8 +32555,11 @@
       <c r="E721">
         <v>85</v>
       </c>
-    </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>6</v>
       </c>
@@ -31606,8 +32575,11 @@
       <c r="E722">
         <v>57</v>
       </c>
-    </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>6</v>
       </c>
@@ -31623,8 +32595,11 @@
       <c r="E723">
         <v>77</v>
       </c>
-    </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>6</v>
       </c>
@@ -31640,8 +32615,11 @@
       <c r="E724">
         <v>74</v>
       </c>
-    </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>6</v>
       </c>
@@ -31657,8 +32635,11 @@
       <c r="E725">
         <v>33</v>
       </c>
-    </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>6</v>
       </c>
@@ -31674,8 +32655,11 @@
       <c r="E726">
         <v>43</v>
       </c>
-    </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>6</v>
       </c>
@@ -31691,8 +32675,11 @@
       <c r="E727">
         <v>54</v>
       </c>
-    </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>6</v>
       </c>
@@ -31708,8 +32695,11 @@
       <c r="E728">
         <v>63</v>
       </c>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>6</v>
       </c>
@@ -31725,8 +32715,11 @@
       <c r="E729">
         <v>71</v>
       </c>
-    </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>6</v>
       </c>
@@ -31742,8 +32735,11 @@
       <c r="E730">
         <v>7</v>
       </c>
-    </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>6</v>
       </c>
@@ -31759,8 +32755,11 @@
       <c r="E731">
         <v>17</v>
       </c>
-    </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>6</v>
       </c>
@@ -31776,8 +32775,11 @@
       <c r="E732">
         <v>76</v>
       </c>
-    </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>6</v>
       </c>
@@ -31793,8 +32795,11 @@
       <c r="E733">
         <v>38</v>
       </c>
-    </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>6</v>
       </c>
@@ -31810,8 +32815,11 @@
       <c r="E734">
         <v>39</v>
       </c>
-    </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>6</v>
       </c>
@@ -31827,8 +32835,11 @@
       <c r="E735">
         <v>93</v>
       </c>
-    </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>6</v>
       </c>
@@ -31844,8 +32855,11 @@
       <c r="E736">
         <v>75</v>
       </c>
-    </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F736">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>6</v>
       </c>
@@ -31861,8 +32875,11 @@
       <c r="E737">
         <v>40</v>
       </c>
-    </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F737">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>6</v>
       </c>
@@ -31878,8 +32895,11 @@
       <c r="E738">
         <v>55</v>
       </c>
-    </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>6</v>
       </c>
@@ -31895,8 +32915,11 @@
       <c r="E739">
         <v>42</v>
       </c>
-    </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>6</v>
       </c>
@@ -31912,8 +32935,11 @@
       <c r="E740">
         <v>56</v>
       </c>
-    </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>6</v>
       </c>
@@ -31929,8 +32955,11 @@
       <c r="E741">
         <v>51</v>
       </c>
-    </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F741">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>6</v>
       </c>
@@ -31946,8 +32975,11 @@
       <c r="E742">
         <v>79</v>
       </c>
-    </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>6</v>
       </c>
@@ -31963,8 +32995,11 @@
       <c r="E743">
         <v>96</v>
       </c>
-    </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>6</v>
       </c>
@@ -31980,8 +33015,11 @@
       <c r="E744">
         <v>66</v>
       </c>
-    </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F744">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>6</v>
       </c>
@@ -31997,8 +33035,11 @@
       <c r="E745">
         <v>45</v>
       </c>
-    </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F745">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>6</v>
       </c>
@@ -32014,8 +33055,11 @@
       <c r="E746">
         <v>98</v>
       </c>
-    </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>6</v>
       </c>
@@ -32031,8 +33075,11 @@
       <c r="E747">
         <v>14</v>
       </c>
-    </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>6</v>
       </c>
@@ -32048,8 +33095,11 @@
       <c r="E748">
         <v>66</v>
       </c>
-    </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>6</v>
       </c>
@@ -32065,8 +33115,11 @@
       <c r="E749">
         <v>68</v>
       </c>
-    </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>6</v>
       </c>
@@ -32082,8 +33135,11 @@
       <c r="E750">
         <v>12</v>
       </c>
-    </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>6</v>
       </c>
@@ -32099,8 +33155,11 @@
       <c r="E751">
         <v>51</v>
       </c>
-    </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>6</v>
       </c>
@@ -32116,8 +33175,11 @@
       <c r="E752">
         <v>74</v>
       </c>
-    </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>6</v>
       </c>
@@ -32133,8 +33195,11 @@
       <c r="E753">
         <v>55</v>
       </c>
-    </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>6</v>
       </c>
@@ -32150,8 +33215,11 @@
       <c r="E754">
         <v>7</v>
       </c>
-    </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>6</v>
       </c>
@@ -32167,8 +33235,11 @@
       <c r="E755">
         <v>4</v>
       </c>
-    </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F755">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>6</v>
       </c>
@@ -32184,8 +33255,11 @@
       <c r="E756">
         <v>74</v>
       </c>
-    </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>6</v>
       </c>
@@ -32201,8 +33275,11 @@
       <c r="E757">
         <v>1</v>
       </c>
-    </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F757">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>6</v>
       </c>
@@ -32218,8 +33295,11 @@
       <c r="E758">
         <v>1</v>
       </c>
-    </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F758">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>6</v>
       </c>
@@ -32235,8 +33315,11 @@
       <c r="E759">
         <v>90</v>
       </c>
-    </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>6</v>
       </c>
@@ -32252,8 +33335,11 @@
       <c r="E760">
         <v>33</v>
       </c>
-    </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>6</v>
       </c>
@@ -32269,8 +33355,11 @@
       <c r="E761">
         <v>68</v>
       </c>
-    </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>6</v>
       </c>
@@ -32286,8 +33375,11 @@
       <c r="E762">
         <v>78</v>
       </c>
-    </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>6</v>
       </c>
@@ -32303,8 +33395,11 @@
       <c r="E763">
         <v>100</v>
       </c>
-    </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>6</v>
       </c>
@@ -32320,8 +33415,11 @@
       <c r="E764">
         <v>41</v>
       </c>
-    </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>6</v>
       </c>
@@ -32337,8 +33435,11 @@
       <c r="E765">
         <v>31</v>
       </c>
-    </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>6</v>
       </c>
@@ -32354,8 +33455,11 @@
       <c r="E766">
         <v>64</v>
       </c>
-    </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>6</v>
       </c>
@@ -32371,8 +33475,11 @@
       <c r="E767">
         <v>3</v>
       </c>
-    </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>6</v>
       </c>
@@ -32388,8 +33495,11 @@
       <c r="E768">
         <v>27</v>
       </c>
-    </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>6</v>
       </c>
@@ -32405,8 +33515,11 @@
       <c r="E769">
         <v>62</v>
       </c>
-    </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>6</v>
       </c>
@@ -32422,8 +33535,11 @@
       <c r="E770">
         <v>88</v>
       </c>
-    </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>6</v>
       </c>
@@ -32439,8 +33555,11 @@
       <c r="E771">
         <v>88</v>
       </c>
-    </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>6</v>
       </c>
@@ -32456,8 +33575,11 @@
       <c r="E772">
         <v>13</v>
       </c>
-    </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F772">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>6</v>
       </c>
@@ -32473,8 +33595,11 @@
       <c r="E773">
         <v>76</v>
       </c>
-    </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F773">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>6</v>
       </c>
@@ -32490,8 +33615,11 @@
       <c r="E774">
         <v>94</v>
       </c>
-    </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>6</v>
       </c>
@@ -32507,8 +33635,11 @@
       <c r="E775">
         <v>58</v>
       </c>
-    </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F775">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>6</v>
       </c>
@@ -32524,8 +33655,11 @@
       <c r="E776">
         <v>28</v>
       </c>
-    </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>6</v>
       </c>
@@ -32541,8 +33675,11 @@
       <c r="E777">
         <v>85</v>
       </c>
-    </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>6</v>
       </c>
@@ -32558,8 +33695,11 @@
       <c r="E778">
         <v>84</v>
       </c>
-    </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>6</v>
       </c>
@@ -32575,8 +33715,11 @@
       <c r="E779">
         <v>95</v>
       </c>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F779">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>6</v>
       </c>
@@ -32592,8 +33735,11 @@
       <c r="E780">
         <v>68</v>
       </c>
-    </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>6</v>
       </c>
@@ -32609,8 +33755,11 @@
       <c r="E781">
         <v>13</v>
       </c>
-    </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F781">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>6</v>
       </c>
@@ -32626,8 +33775,11 @@
       <c r="E782">
         <v>39</v>
       </c>
-    </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F782">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>6</v>
       </c>
@@ -32643,8 +33795,11 @@
       <c r="E783">
         <v>23</v>
       </c>
-    </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>6</v>
       </c>
@@ -32660,8 +33815,11 @@
       <c r="E784">
         <v>20</v>
       </c>
-    </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>6</v>
       </c>
@@ -32677,8 +33835,11 @@
       <c r="E785">
         <v>21</v>
       </c>
-    </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>6</v>
       </c>
@@ -32694,8 +33855,11 @@
       <c r="E786">
         <v>97</v>
       </c>
-    </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>6</v>
       </c>
@@ -32711,8 +33875,11 @@
       <c r="E787">
         <v>52</v>
       </c>
-    </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>6</v>
       </c>
@@ -32728,8 +33895,11 @@
       <c r="E788">
         <v>9</v>
       </c>
-    </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F788">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>6</v>
       </c>
@@ -32745,8 +33915,11 @@
       <c r="E789">
         <v>44</v>
       </c>
-    </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>6</v>
       </c>
@@ -32762,8 +33935,11 @@
       <c r="E790">
         <v>93</v>
       </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>6</v>
       </c>
@@ -32779,8 +33955,11 @@
       <c r="E791">
         <v>26</v>
       </c>
-    </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>6</v>
       </c>
@@ -32796,8 +33975,11 @@
       <c r="E792">
         <v>65</v>
       </c>
-    </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>6</v>
       </c>
@@ -32813,8 +33995,11 @@
       <c r="E793">
         <v>52</v>
       </c>
-    </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F793">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>6</v>
       </c>
@@ -32830,8 +34015,11 @@
       <c r="E794">
         <v>59</v>
       </c>
-    </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>6</v>
       </c>
@@ -32847,8 +34035,11 @@
       <c r="E795">
         <v>94</v>
       </c>
-    </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>6</v>
       </c>
@@ -32864,8 +34055,11 @@
       <c r="E796">
         <v>85</v>
       </c>
-    </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>6</v>
       </c>
@@ -32881,8 +34075,11 @@
       <c r="E797">
         <v>90</v>
       </c>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>6</v>
       </c>
@@ -32898,8 +34095,11 @@
       <c r="E798">
         <v>50</v>
       </c>
-    </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>6</v>
       </c>
@@ -32915,8 +34115,11 @@
       <c r="E799">
         <v>78</v>
       </c>
-    </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>6</v>
       </c>
@@ -32932,8 +34135,11 @@
       <c r="E800">
         <v>43</v>
       </c>
-    </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>6</v>
       </c>
@@ -32949,8 +34155,11 @@
       <c r="E801">
         <v>50</v>
       </c>
-    </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>6</v>
       </c>
@@ -32966,8 +34175,11 @@
       <c r="E802">
         <v>35</v>
       </c>
-    </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>6</v>
       </c>
@@ -32983,8 +34195,12 @@
       <c r="E803">
         <v>27</v>
       </c>
-    </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F803">
+        <v>1</v>
+      </c>
+      <c r="K803" s="3"/>
+    </row>
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>6</v>
       </c>
@@ -33000,8 +34216,11 @@
       <c r="E804">
         <v>38</v>
       </c>
-    </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>6</v>
       </c>
@@ -33018,7 +34237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>6</v>
       </c>
@@ -33035,7 +34254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>6</v>
       </c>
@@ -33052,7 +34271,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>6</v>
       </c>
@@ -33069,7 +34288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>6</v>
       </c>
@@ -33086,7 +34305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>6</v>
       </c>
@@ -33103,7 +34322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>6</v>
       </c>
@@ -33120,7 +34339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>6</v>
       </c>
@@ -33137,7 +34356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>6</v>
       </c>
@@ -33154,7 +34373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>6</v>
       </c>
@@ -33171,7 +34390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>6</v>
       </c>
@@ -33188,7 +34407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>6</v>
       </c>
@@ -39758,6 +40977,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b866b217d0e5359/Área de Trabalho/Insper/2o semestre/Ciência dos Dados/Projeto 1/22-2b-cd-p1-grupo_joaoogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFCFE07-6B38-4DB7-9263-61A542C365A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6AFCFE07-6B38-4DB7-9263-61A542C365A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0251BC-59D5-40B6-850B-1F0323FF5BD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18115,8 +18115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
-      <selection activeCell="K803" sqref="K803"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
+      <selection activeCell="O1094" sqref="O1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39048,7 +39048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1089" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
         <v>6</v>
       </c>
@@ -39065,7 +39065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
         <v>6</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1091" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
         <v>6</v>
       </c>
@@ -39099,7 +39099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1092" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
         <v>6</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1093" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
         <v>6</v>
       </c>
@@ -39133,7 +39133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1094" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
         <v>6</v>
       </c>
@@ -39149,8 +39149,11 @@
       <c r="E1094">
         <v>57</v>
       </c>
-    </row>
-    <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
         <v>6</v>
       </c>
@@ -39166,8 +39169,11 @@
       <c r="E1095">
         <v>23</v>
       </c>
-    </row>
-    <row r="1096" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
         <v>6</v>
       </c>
@@ -39183,8 +39189,11 @@
       <c r="E1096">
         <v>39</v>
       </c>
-    </row>
-    <row r="1097" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
         <v>6</v>
       </c>
@@ -39200,8 +39209,11 @@
       <c r="E1097">
         <v>47</v>
       </c>
-    </row>
-    <row r="1098" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
         <v>6</v>
       </c>
@@ -39217,8 +39229,11 @@
       <c r="E1098">
         <v>90</v>
       </c>
-    </row>
-    <row r="1099" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
         <v>6</v>
       </c>
@@ -39234,8 +39249,11 @@
       <c r="E1099">
         <v>2</v>
       </c>
-    </row>
-    <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
         <v>6</v>
       </c>
@@ -39251,8 +39269,11 @@
       <c r="E1100">
         <v>23</v>
       </c>
-    </row>
-    <row r="1101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
         <v>6</v>
       </c>
@@ -39268,8 +39289,11 @@
       <c r="E1101">
         <v>62</v>
       </c>
-    </row>
-    <row r="1102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
         <v>6</v>
       </c>
@@ -39285,8 +39309,11 @@
       <c r="E1102">
         <v>96</v>
       </c>
-    </row>
-    <row r="1103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
         <v>6</v>
       </c>
@@ -39302,8 +39329,11 @@
       <c r="E1103">
         <v>42</v>
       </c>
-    </row>
-    <row r="1104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
         <v>6</v>
       </c>
@@ -39319,8 +39349,11 @@
       <c r="E1104">
         <v>66</v>
       </c>
-    </row>
-    <row r="1105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
         <v>6</v>
       </c>
@@ -39336,8 +39369,11 @@
       <c r="E1105">
         <v>5</v>
       </c>
-    </row>
-    <row r="1106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
         <v>6</v>
       </c>
@@ -39353,8 +39389,11 @@
       <c r="E1106">
         <v>1</v>
       </c>
-    </row>
-    <row r="1107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
         <v>6</v>
       </c>
@@ -39370,8 +39409,11 @@
       <c r="E1107">
         <v>65</v>
       </c>
-    </row>
-    <row r="1108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
         <v>6</v>
       </c>
@@ -39387,8 +39429,11 @@
       <c r="E1108">
         <v>64</v>
       </c>
-    </row>
-    <row r="1109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
         <v>6</v>
       </c>
@@ -39404,8 +39449,11 @@
       <c r="E1109">
         <v>61</v>
       </c>
-    </row>
-    <row r="1110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
         <v>6</v>
       </c>
@@ -39421,8 +39469,11 @@
       <c r="E1110">
         <v>20</v>
       </c>
-    </row>
-    <row r="1111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
         <v>6</v>
       </c>
@@ -39438,8 +39489,11 @@
       <c r="E1111">
         <v>40</v>
       </c>
-    </row>
-    <row r="1112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
         <v>6</v>
       </c>
@@ -39455,8 +39509,11 @@
       <c r="E1112">
         <v>95</v>
       </c>
-    </row>
-    <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
         <v>6</v>
       </c>
@@ -39472,8 +39529,11 @@
       <c r="E1113">
         <v>5</v>
       </c>
-    </row>
-    <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
         <v>6</v>
       </c>
@@ -39489,8 +39549,11 @@
       <c r="E1114">
         <v>84</v>
       </c>
-    </row>
-    <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
         <v>6</v>
       </c>
@@ -39506,8 +39569,11 @@
       <c r="E1115">
         <v>9</v>
       </c>
-    </row>
-    <row r="1116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
         <v>6</v>
       </c>
@@ -39523,8 +39589,11 @@
       <c r="E1116">
         <v>99</v>
       </c>
-    </row>
-    <row r="1117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
         <v>6</v>
       </c>
@@ -39540,8 +39609,11 @@
       <c r="E1117">
         <v>68</v>
       </c>
-    </row>
-    <row r="1118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
         <v>6</v>
       </c>
@@ -39557,8 +39629,11 @@
       <c r="E1118">
         <v>87</v>
       </c>
-    </row>
-    <row r="1119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
         <v>6</v>
       </c>
@@ -39574,8 +39649,11 @@
       <c r="E1119">
         <v>10</v>
       </c>
-    </row>
-    <row r="1120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
         <v>6</v>
       </c>
@@ -39591,8 +39669,11 @@
       <c r="E1120">
         <v>51</v>
       </c>
-    </row>
-    <row r="1121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
         <v>6</v>
       </c>
@@ -39608,8 +39689,11 @@
       <c r="E1121">
         <v>71</v>
       </c>
-    </row>
-    <row r="1122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
         <v>6</v>
       </c>
@@ -39625,8 +39709,11 @@
       <c r="E1122">
         <v>64</v>
       </c>
-    </row>
-    <row r="1123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
         <v>6</v>
       </c>
@@ -39642,8 +39729,11 @@
       <c r="E1123">
         <v>99</v>
       </c>
-    </row>
-    <row r="1124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
         <v>6</v>
       </c>
@@ -39659,8 +39749,11 @@
       <c r="E1124">
         <v>92</v>
       </c>
-    </row>
-    <row r="1125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
         <v>6</v>
       </c>
@@ -39676,8 +39769,11 @@
       <c r="E1125">
         <v>81</v>
       </c>
-    </row>
-    <row r="1126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
         <v>6</v>
       </c>
@@ -39693,8 +39789,11 @@
       <c r="E1126">
         <v>10</v>
       </c>
-    </row>
-    <row r="1127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
         <v>6</v>
       </c>
@@ -39710,8 +39809,11 @@
       <c r="E1127">
         <v>98</v>
       </c>
-    </row>
-    <row r="1128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
         <v>6</v>
       </c>
@@ -39727,8 +39829,11 @@
       <c r="E1128">
         <v>32</v>
       </c>
-    </row>
-    <row r="1129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
         <v>6</v>
       </c>
@@ -39744,8 +39849,11 @@
       <c r="E1129">
         <v>98</v>
       </c>
-    </row>
-    <row r="1130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
         <v>6</v>
       </c>
@@ -39761,8 +39869,11 @@
       <c r="E1130">
         <v>73</v>
       </c>
-    </row>
-    <row r="1131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
         <v>6</v>
       </c>
@@ -39778,8 +39889,11 @@
       <c r="E1131">
         <v>15</v>
       </c>
-    </row>
-    <row r="1132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
         <v>6</v>
       </c>
@@ -39795,8 +39909,11 @@
       <c r="E1132">
         <v>86</v>
       </c>
-    </row>
-    <row r="1133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
         <v>6</v>
       </c>
@@ -39812,8 +39929,11 @@
       <c r="E1133">
         <v>33</v>
       </c>
-    </row>
-    <row r="1134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
         <v>6</v>
       </c>
@@ -39829,8 +39949,11 @@
       <c r="E1134">
         <v>38</v>
       </c>
-    </row>
-    <row r="1135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
         <v>6</v>
       </c>
@@ -39846,8 +39969,11 @@
       <c r="E1135">
         <v>71</v>
       </c>
-    </row>
-    <row r="1136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
         <v>6</v>
       </c>
@@ -39863,8 +39989,11 @@
       <c r="E1136">
         <v>83</v>
       </c>
-    </row>
-    <row r="1137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
         <v>6</v>
       </c>
@@ -39880,8 +40009,11 @@
       <c r="E1137">
         <v>84</v>
       </c>
-    </row>
-    <row r="1138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
         <v>6</v>
       </c>
@@ -39897,8 +40029,11 @@
       <c r="E1138">
         <v>30</v>
       </c>
-    </row>
-    <row r="1139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
         <v>6</v>
       </c>
@@ -39914,8 +40049,11 @@
       <c r="E1139">
         <v>18</v>
       </c>
-    </row>
-    <row r="1140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
         <v>6</v>
       </c>
@@ -39931,8 +40069,11 @@
       <c r="E1140">
         <v>19</v>
       </c>
-    </row>
-    <row r="1141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
         <v>6</v>
       </c>
@@ -39948,8 +40089,11 @@
       <c r="E1141">
         <v>60</v>
       </c>
-    </row>
-    <row r="1142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
         <v>6</v>
       </c>
@@ -39965,8 +40109,11 @@
       <c r="E1142">
         <v>71</v>
       </c>
-    </row>
-    <row r="1143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
         <v>6</v>
       </c>
@@ -39982,8 +40129,11 @@
       <c r="E1143">
         <v>15</v>
       </c>
-    </row>
-    <row r="1144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
         <v>6</v>
       </c>
@@ -39999,8 +40149,11 @@
       <c r="E1144">
         <v>88</v>
       </c>
-    </row>
-    <row r="1145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
         <v>6</v>
       </c>
@@ -40016,8 +40169,11 @@
       <c r="E1145">
         <v>85</v>
       </c>
-    </row>
-    <row r="1146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
         <v>6</v>
       </c>
@@ -40033,8 +40189,11 @@
       <c r="E1146">
         <v>23</v>
       </c>
-    </row>
-    <row r="1147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
         <v>6</v>
       </c>
@@ -40050,8 +40209,11 @@
       <c r="E1147">
         <v>31</v>
       </c>
-    </row>
-    <row r="1148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
         <v>6</v>
       </c>
@@ -40067,8 +40229,11 @@
       <c r="E1148">
         <v>2</v>
       </c>
-    </row>
-    <row r="1149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
         <v>6</v>
       </c>
@@ -40084,8 +40249,11 @@
       <c r="E1149">
         <v>86</v>
       </c>
-    </row>
-    <row r="1150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
         <v>6</v>
       </c>
@@ -40101,8 +40269,11 @@
       <c r="E1150">
         <v>65</v>
       </c>
-    </row>
-    <row r="1151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
         <v>6</v>
       </c>
@@ -40118,8 +40289,11 @@
       <c r="E1151">
         <v>95</v>
       </c>
-    </row>
-    <row r="1152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
         <v>6</v>
       </c>
@@ -40135,8 +40309,11 @@
       <c r="E1152">
         <v>69</v>
       </c>
-    </row>
-    <row r="1153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
         <v>6</v>
       </c>
@@ -40152,8 +40329,11 @@
       <c r="E1153">
         <v>74</v>
       </c>
-    </row>
-    <row r="1154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
         <v>6</v>
       </c>
@@ -40169,8 +40349,11 @@
       <c r="E1154">
         <v>14</v>
       </c>
-    </row>
-    <row r="1155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
         <v>6</v>
       </c>
@@ -40186,8 +40369,11 @@
       <c r="E1155">
         <v>55</v>
       </c>
-    </row>
-    <row r="1156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
         <v>6</v>
       </c>
@@ -40203,8 +40389,11 @@
       <c r="E1156">
         <v>75</v>
       </c>
-    </row>
-    <row r="1157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
         <v>6</v>
       </c>
@@ -40220,8 +40409,11 @@
       <c r="E1157">
         <v>62</v>
       </c>
-    </row>
-    <row r="1158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
         <v>6</v>
       </c>
@@ -40237,8 +40429,11 @@
       <c r="E1158">
         <v>85</v>
       </c>
-    </row>
-    <row r="1159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
         <v>6</v>
       </c>
@@ -40254,8 +40449,11 @@
       <c r="E1159">
         <v>81</v>
       </c>
-    </row>
-    <row r="1160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
         <v>6</v>
       </c>
@@ -40271,8 +40469,11 @@
       <c r="E1160">
         <v>6</v>
       </c>
-    </row>
-    <row r="1161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
         <v>6</v>
       </c>
@@ -40288,8 +40489,11 @@
       <c r="E1161">
         <v>25</v>
       </c>
-    </row>
-    <row r="1162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
         <v>6</v>
       </c>
@@ -40305,8 +40509,11 @@
       <c r="E1162">
         <v>74</v>
       </c>
-    </row>
-    <row r="1163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
         <v>6</v>
       </c>
@@ -40322,8 +40529,11 @@
       <c r="E1163">
         <v>90</v>
       </c>
-    </row>
-    <row r="1164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
         <v>6</v>
       </c>
@@ -40339,8 +40549,11 @@
       <c r="E1164">
         <v>35</v>
       </c>
-    </row>
-    <row r="1165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
         <v>6</v>
       </c>
@@ -40356,8 +40569,11 @@
       <c r="E1165">
         <v>17</v>
       </c>
-    </row>
-    <row r="1166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
         <v>6</v>
       </c>
@@ -40373,8 +40589,11 @@
       <c r="E1166">
         <v>69</v>
       </c>
-    </row>
-    <row r="1167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
         <v>6</v>
       </c>
@@ -40390,8 +40609,11 @@
       <c r="E1167">
         <v>93</v>
       </c>
-    </row>
-    <row r="1168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
         <v>6</v>
       </c>
@@ -40407,8 +40629,11 @@
       <c r="E1168">
         <v>75</v>
       </c>
-    </row>
-    <row r="1169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
         <v>6</v>
       </c>
@@ -40424,8 +40649,11 @@
       <c r="E1169">
         <v>28</v>
       </c>
-    </row>
-    <row r="1170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
         <v>6</v>
       </c>
@@ -40441,8 +40669,11 @@
       <c r="E1170">
         <v>79</v>
       </c>
-    </row>
-    <row r="1171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
         <v>6</v>
       </c>
@@ -40458,8 +40689,11 @@
       <c r="E1171">
         <v>28</v>
       </c>
-    </row>
-    <row r="1172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
         <v>6</v>
       </c>
@@ -40475,8 +40709,11 @@
       <c r="E1172">
         <v>95</v>
       </c>
-    </row>
-    <row r="1173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
         <v>6</v>
       </c>
@@ -40492,8 +40729,11 @@
       <c r="E1173">
         <v>82</v>
       </c>
-    </row>
-    <row r="1174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
         <v>6</v>
       </c>
@@ -40509,8 +40749,11 @@
       <c r="E1174">
         <v>22</v>
       </c>
-    </row>
-    <row r="1175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
         <v>6</v>
       </c>
@@ -40526,8 +40769,11 @@
       <c r="E1175">
         <v>100</v>
       </c>
-    </row>
-    <row r="1176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
         <v>6</v>
       </c>
@@ -40543,8 +40789,11 @@
       <c r="E1176">
         <v>31</v>
       </c>
-    </row>
-    <row r="1177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
         <v>6</v>
       </c>
@@ -40560,8 +40809,11 @@
       <c r="E1177">
         <v>12</v>
       </c>
-    </row>
-    <row r="1178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
         <v>6</v>
       </c>
@@ -40577,8 +40829,11 @@
       <c r="E1178">
         <v>14</v>
       </c>
-    </row>
-    <row r="1179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
         <v>6</v>
       </c>
@@ -40594,8 +40849,11 @@
       <c r="E1179">
         <v>51</v>
       </c>
-    </row>
-    <row r="1180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
         <v>6</v>
       </c>
@@ -40611,8 +40869,11 @@
       <c r="E1180">
         <v>67</v>
       </c>
-    </row>
-    <row r="1181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
         <v>6</v>
       </c>
@@ -40628,8 +40889,11 @@
       <c r="E1181">
         <v>20</v>
       </c>
-    </row>
-    <row r="1182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
         <v>6</v>
       </c>
@@ -40645,8 +40909,11 @@
       <c r="E1182">
         <v>7</v>
       </c>
-    </row>
-    <row r="1183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
         <v>6</v>
       </c>
@@ -40662,8 +40929,11 @@
       <c r="E1183">
         <v>70</v>
       </c>
-    </row>
-    <row r="1184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
         <v>6</v>
       </c>
@@ -40679,6 +40949,9 @@
       <c r="E1184">
         <v>40</v>
       </c>
+      <c r="F1184">
+        <v>1</v>
+      </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
@@ -40696,6 +40969,9 @@
       <c r="E1185">
         <v>95</v>
       </c>
+      <c r="F1185">
+        <v>1</v>
+      </c>
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
@@ -40713,6 +40989,9 @@
       <c r="E1186">
         <v>87</v>
       </c>
+      <c r="F1186">
+        <v>1</v>
+      </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
@@ -40730,6 +41009,9 @@
       <c r="E1187">
         <v>70</v>
       </c>
+      <c r="F1187">
+        <v>2</v>
+      </c>
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
@@ -40747,6 +41029,9 @@
       <c r="E1188">
         <v>13</v>
       </c>
+      <c r="F1188">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
@@ -40764,6 +41049,9 @@
       <c r="E1189">
         <v>64</v>
       </c>
+      <c r="F1189">
+        <v>1</v>
+      </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
@@ -40781,6 +41069,9 @@
       <c r="E1190">
         <v>38</v>
       </c>
+      <c r="F1190">
+        <v>1</v>
+      </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
@@ -40798,6 +41089,9 @@
       <c r="E1191">
         <v>86</v>
       </c>
+      <c r="F1191">
+        <v>2</v>
+      </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
@@ -40815,6 +41109,9 @@
       <c r="E1192">
         <v>92</v>
       </c>
+      <c r="F1192">
+        <v>1</v>
+      </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
@@ -40832,6 +41129,9 @@
       <c r="E1193">
         <v>74</v>
       </c>
+      <c r="F1193">
+        <v>1</v>
+      </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
@@ -40849,6 +41149,9 @@
       <c r="E1194">
         <v>9</v>
       </c>
+      <c r="F1194">
+        <v>1</v>
+      </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
@@ -40866,6 +41169,9 @@
       <c r="E1195">
         <v>37</v>
       </c>
+      <c r="F1195">
+        <v>1</v>
+      </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
@@ -40883,6 +41189,9 @@
       <c r="E1196">
         <v>33</v>
       </c>
+      <c r="F1196">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
@@ -40900,6 +41209,9 @@
       <c r="E1197">
         <v>16</v>
       </c>
+      <c r="F1197">
+        <v>1</v>
+      </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
@@ -40917,6 +41229,9 @@
       <c r="E1198">
         <v>85</v>
       </c>
+      <c r="F1198">
+        <v>1</v>
+      </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
@@ -40933,6 +41248,9 @@
       </c>
       <c r="E1199">
         <v>66</v>
+      </c>
+      <c r="F1199">
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b866b217d0e5359/Área de Trabalho/Insper/2o semestre/Ciência dos Dados/Projeto 1/22-2b-cd-p1-grupo_joaoogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6AFCFE07-6B38-4DB7-9263-61A542C365A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0251BC-59D5-40B6-850B-1F0323FF5BD1}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{6AFCFE07-6B38-4DB7-9263-61A542C365A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF7A654-B8AC-4640-A7F8-458DAE48C3E8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18115,8 +18115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
-      <selection activeCell="O1094" sqref="O1094"/>
+    <sheetView tabSelected="1" topLeftCell="A951" workbookViewId="0">
+      <selection activeCell="I954" sqref="I954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36600,7 +36600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>6</v>
       </c>
@@ -36617,7 +36617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>6</v>
       </c>
@@ -36634,7 +36634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>6</v>
       </c>
@@ -36651,7 +36651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>6</v>
       </c>
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>6</v>
       </c>
@@ -36685,7 +36685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>6</v>
       </c>
@@ -36702,7 +36702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>6</v>
       </c>
@@ -36718,8 +36718,11 @@
       <c r="E951">
         <v>25</v>
       </c>
-    </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>6</v>
       </c>
@@ -36735,8 +36738,11 @@
       <c r="E952">
         <v>48</v>
       </c>
-    </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>6</v>
       </c>
@@ -36752,8 +36758,11 @@
       <c r="E953">
         <v>62</v>
       </c>
-    </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>6</v>
       </c>
@@ -36769,8 +36778,11 @@
       <c r="E954">
         <v>18</v>
       </c>
-    </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>6</v>
       </c>
@@ -36786,8 +36798,11 @@
       <c r="E955">
         <v>13</v>
       </c>
-    </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>6</v>
       </c>
@@ -36803,8 +36818,11 @@
       <c r="E956">
         <v>82</v>
       </c>
-    </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>6</v>
       </c>
@@ -36820,8 +36838,11 @@
       <c r="E957">
         <v>4</v>
       </c>
-    </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>6</v>
       </c>
@@ -36837,8 +36858,11 @@
       <c r="E958">
         <v>8</v>
       </c>
-    </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>6</v>
       </c>
@@ -36854,8 +36878,11 @@
       <c r="E959">
         <v>9</v>
       </c>
-    </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>6</v>
       </c>
@@ -36871,8 +36898,11 @@
       <c r="E960">
         <v>79</v>
       </c>
-    </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>6</v>
       </c>
@@ -36888,8 +36918,11 @@
       <c r="E961">
         <v>28</v>
       </c>
-    </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>6</v>
       </c>
@@ -36905,8 +36938,11 @@
       <c r="E962">
         <v>69</v>
       </c>
-    </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>6</v>
       </c>
@@ -36922,8 +36958,11 @@
       <c r="E963">
         <v>92</v>
       </c>
-    </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>6</v>
       </c>
@@ -36939,8 +36978,11 @@
       <c r="E964">
         <v>68</v>
       </c>
-    </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>6</v>
       </c>
@@ -36956,8 +36998,11 @@
       <c r="E965">
         <v>77</v>
       </c>
-    </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>6</v>
       </c>
@@ -36973,8 +37018,11 @@
       <c r="E966">
         <v>47</v>
       </c>
-    </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>6</v>
       </c>
@@ -36990,8 +37038,11 @@
       <c r="E967">
         <v>13</v>
       </c>
-    </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F967">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>6</v>
       </c>
@@ -37007,8 +37058,11 @@
       <c r="E968">
         <v>11</v>
       </c>
-    </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>6</v>
       </c>
@@ -37024,8 +37078,11 @@
       <c r="E969">
         <v>25</v>
       </c>
-    </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F969">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>6</v>
       </c>
@@ -37041,8 +37098,11 @@
       <c r="E970">
         <v>81</v>
       </c>
-    </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>6</v>
       </c>
@@ -37058,8 +37118,11 @@
       <c r="E971">
         <v>5</v>
       </c>
-    </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>6</v>
       </c>
@@ -37075,8 +37138,11 @@
       <c r="E972">
         <v>8</v>
       </c>
-    </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>6</v>
       </c>
@@ -37092,8 +37158,11 @@
       <c r="E973">
         <v>45</v>
       </c>
-    </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>6</v>
       </c>
@@ -37109,8 +37178,11 @@
       <c r="E974">
         <v>31</v>
       </c>
-    </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>6</v>
       </c>
@@ -37126,8 +37198,11 @@
       <c r="E975">
         <v>87</v>
       </c>
-    </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F975">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>6</v>
       </c>
@@ -37143,8 +37218,11 @@
       <c r="E976">
         <v>86</v>
       </c>
-    </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F976">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>6</v>
       </c>
@@ -37160,8 +37238,11 @@
       <c r="E977">
         <v>74</v>
       </c>
-    </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>6</v>
       </c>
@@ -37177,8 +37258,11 @@
       <c r="E978">
         <v>36</v>
       </c>
-    </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>6</v>
       </c>
@@ -37194,8 +37278,11 @@
       <c r="E979">
         <v>54</v>
       </c>
-    </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>6</v>
       </c>
@@ -37211,8 +37298,11 @@
       <c r="E980">
         <v>27</v>
       </c>
-    </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F980">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>6</v>
       </c>
@@ -37228,8 +37318,11 @@
       <c r="E981">
         <v>62</v>
       </c>
-    </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>6</v>
       </c>
@@ -37245,8 +37338,11 @@
       <c r="E982">
         <v>100</v>
       </c>
-    </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>6</v>
       </c>
@@ -37262,8 +37358,11 @@
       <c r="E983">
         <v>60</v>
       </c>
-    </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>6</v>
       </c>
@@ -37279,8 +37378,11 @@
       <c r="E984">
         <v>44</v>
       </c>
-    </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>6</v>
       </c>
@@ -37296,8 +37398,11 @@
       <c r="E985">
         <v>40</v>
       </c>
-    </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>6</v>
       </c>
@@ -37313,8 +37418,11 @@
       <c r="E986">
         <v>37</v>
       </c>
-    </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>6</v>
       </c>
@@ -37330,8 +37438,11 @@
       <c r="E987">
         <v>94</v>
       </c>
-    </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>6</v>
       </c>
@@ -37347,8 +37458,11 @@
       <c r="E988">
         <v>58</v>
       </c>
-    </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>6</v>
       </c>
@@ -37364,8 +37478,11 @@
       <c r="E989">
         <v>18</v>
       </c>
-    </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>6</v>
       </c>
@@ -37381,8 +37498,11 @@
       <c r="E990">
         <v>4</v>
       </c>
-    </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>6</v>
       </c>
@@ -37398,8 +37518,11 @@
       <c r="E991">
         <v>50</v>
       </c>
-    </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>6</v>
       </c>
@@ -37415,8 +37538,11 @@
       <c r="E992">
         <v>95</v>
       </c>
-    </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>6</v>
       </c>
@@ -37432,8 +37558,11 @@
       <c r="E993">
         <v>28</v>
       </c>
-    </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>6</v>
       </c>
@@ -37449,8 +37578,11 @@
       <c r="E994">
         <v>3</v>
       </c>
-    </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>6</v>
       </c>
@@ -37466,8 +37598,11 @@
       <c r="E995">
         <v>2</v>
       </c>
-    </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>6</v>
       </c>
@@ -37483,8 +37618,11 @@
       <c r="E996">
         <v>69</v>
       </c>
-    </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>6</v>
       </c>
@@ -37500,8 +37638,11 @@
       <c r="E997">
         <v>16</v>
       </c>
-    </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>6</v>
       </c>
@@ -37517,8 +37658,11 @@
       <c r="E998">
         <v>79</v>
       </c>
-    </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F998">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>6</v>
       </c>
@@ -37534,8 +37678,11 @@
       <c r="E999">
         <v>34</v>
       </c>
-    </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>6</v>
       </c>
@@ -37551,8 +37698,11 @@
       <c r="E1000">
         <v>88</v>
       </c>
-    </row>
-    <row r="1001" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1000">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>6</v>
       </c>
@@ -37568,8 +37718,11 @@
       <c r="E1001">
         <v>67</v>
       </c>
-    </row>
-    <row r="1002" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
         <v>6</v>
       </c>
@@ -37585,8 +37738,11 @@
       <c r="E1002">
         <v>38</v>
       </c>
-    </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
         <v>6</v>
       </c>
@@ -37602,8 +37758,11 @@
       <c r="E1003">
         <v>7</v>
       </c>
-    </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
         <v>6</v>
       </c>
@@ -37619,8 +37778,11 @@
       <c r="E1004">
         <v>82</v>
       </c>
-    </row>
-    <row r="1005" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
         <v>6</v>
       </c>
@@ -37636,8 +37798,11 @@
       <c r="E1005">
         <v>94</v>
       </c>
-    </row>
-    <row r="1006" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
         <v>6</v>
       </c>
@@ -37653,8 +37818,11 @@
       <c r="E1006">
         <v>95</v>
       </c>
-    </row>
-    <row r="1007" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
         <v>6</v>
       </c>
@@ -37670,8 +37838,11 @@
       <c r="E1007">
         <v>14</v>
       </c>
-    </row>
-    <row r="1008" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
         <v>6</v>
       </c>
@@ -37687,8 +37858,11 @@
       <c r="E1008">
         <v>4</v>
       </c>
-    </row>
-    <row r="1009" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
         <v>6</v>
       </c>
@@ -37704,8 +37878,11 @@
       <c r="E1009">
         <v>67</v>
       </c>
-    </row>
-    <row r="1010" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
         <v>6</v>
       </c>
@@ -37721,8 +37898,11 @@
       <c r="E1010">
         <v>1</v>
       </c>
-    </row>
-    <row r="1011" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
         <v>6</v>
       </c>
@@ -37738,8 +37918,11 @@
       <c r="E1011">
         <v>43</v>
       </c>
-    </row>
-    <row r="1012" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
         <v>6</v>
       </c>
@@ -37755,8 +37938,11 @@
       <c r="E1012">
         <v>100</v>
       </c>
-    </row>
-    <row r="1013" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
         <v>6</v>
       </c>
@@ -37772,8 +37958,11 @@
       <c r="E1013">
         <v>19</v>
       </c>
-    </row>
-    <row r="1014" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1013">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
         <v>6</v>
       </c>
@@ -37789,8 +37978,11 @@
       <c r="E1014">
         <v>46</v>
       </c>
-    </row>
-    <row r="1015" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1014">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
         <v>6</v>
       </c>
@@ -37806,8 +37998,11 @@
       <c r="E1015">
         <v>39</v>
       </c>
-    </row>
-    <row r="1016" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1015">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
         <v>6</v>
       </c>
@@ -37823,8 +38018,11 @@
       <c r="E1016">
         <v>10</v>
       </c>
-    </row>
-    <row r="1017" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
         <v>6</v>
       </c>
@@ -37840,8 +38038,11 @@
       <c r="E1017">
         <v>11</v>
       </c>
-    </row>
-    <row r="1018" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
         <v>6</v>
       </c>
@@ -37857,8 +38058,11 @@
       <c r="E1018">
         <v>11</v>
       </c>
-    </row>
-    <row r="1019" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
         <v>6</v>
       </c>
@@ -37874,8 +38078,11 @@
       <c r="E1019">
         <v>15</v>
       </c>
-    </row>
-    <row r="1020" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
         <v>6</v>
       </c>
@@ -37891,8 +38098,11 @@
       <c r="E1020">
         <v>81</v>
       </c>
-    </row>
-    <row r="1021" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
         <v>6</v>
       </c>
@@ -37908,8 +38118,11 @@
       <c r="E1021">
         <v>63</v>
       </c>
-    </row>
-    <row r="1022" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
         <v>6</v>
       </c>
@@ -37925,8 +38138,11 @@
       <c r="E1022">
         <v>60</v>
       </c>
-    </row>
-    <row r="1023" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
         <v>6</v>
       </c>
@@ -37942,8 +38158,11 @@
       <c r="E1023">
         <v>9</v>
       </c>
-    </row>
-    <row r="1024" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
         <v>6</v>
       </c>
@@ -37959,8 +38178,11 @@
       <c r="E1024">
         <v>24</v>
       </c>
-    </row>
-    <row r="1025" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1024">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
         <v>6</v>
       </c>
@@ -37976,8 +38198,11 @@
       <c r="E1025">
         <v>86</v>
       </c>
-    </row>
-    <row r="1026" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1025">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
         <v>6</v>
       </c>
@@ -37993,8 +38218,11 @@
       <c r="E1026">
         <v>19</v>
       </c>
-    </row>
-    <row r="1027" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1026">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
         <v>6</v>
       </c>
@@ -38010,8 +38238,11 @@
       <c r="E1027">
         <v>84</v>
       </c>
-    </row>
-    <row r="1028" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
         <v>6</v>
       </c>
@@ -38027,8 +38258,11 @@
       <c r="E1028">
         <v>33</v>
       </c>
-    </row>
-    <row r="1029" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1028">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
         <v>6</v>
       </c>
@@ -38044,8 +38278,11 @@
       <c r="E1029">
         <v>45</v>
       </c>
-    </row>
-    <row r="1030" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>6</v>
       </c>
@@ -38061,8 +38298,11 @@
       <c r="E1030">
         <v>77</v>
       </c>
-    </row>
-    <row r="1031" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1030">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
         <v>6</v>
       </c>
@@ -38078,8 +38318,11 @@
       <c r="E1031">
         <v>31</v>
       </c>
-    </row>
-    <row r="1032" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>6</v>
       </c>
@@ -38095,8 +38338,11 @@
       <c r="E1032">
         <v>66</v>
       </c>
-    </row>
-    <row r="1033" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1032">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
         <v>6</v>
       </c>
@@ -38112,8 +38358,11 @@
       <c r="E1033">
         <v>3</v>
       </c>
-    </row>
-    <row r="1034" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
         <v>6</v>
       </c>
@@ -38129,8 +38378,11 @@
       <c r="E1034">
         <v>4</v>
       </c>
-    </row>
-    <row r="1035" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
         <v>6</v>
       </c>
@@ -38146,8 +38398,11 @@
       <c r="E1035">
         <v>89</v>
       </c>
-    </row>
-    <row r="1036" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
         <v>6</v>
       </c>
@@ -38163,8 +38418,11 @@
       <c r="E1036">
         <v>83</v>
       </c>
-    </row>
-    <row r="1037" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
         <v>6</v>
       </c>
@@ -38180,8 +38438,11 @@
       <c r="E1037">
         <v>36</v>
       </c>
-    </row>
-    <row r="1038" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
         <v>6</v>
       </c>
@@ -38197,8 +38458,11 @@
       <c r="E1038">
         <v>92</v>
       </c>
-    </row>
-    <row r="1039" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>6</v>
       </c>
@@ -38214,8 +38478,11 @@
       <c r="E1039">
         <v>40</v>
       </c>
-    </row>
-    <row r="1040" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
         <v>6</v>
       </c>
@@ -38231,8 +38498,11 @@
       <c r="E1040">
         <v>78</v>
       </c>
-    </row>
-    <row r="1041" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
         <v>6</v>
       </c>
@@ -38248,8 +38518,11 @@
       <c r="E1041">
         <v>5</v>
       </c>
-    </row>
-    <row r="1042" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
         <v>6</v>
       </c>
@@ -38265,8 +38538,11 @@
       <c r="E1042">
         <v>44</v>
       </c>
-    </row>
-    <row r="1043" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
         <v>6</v>
       </c>
@@ -38282,8 +38558,11 @@
       <c r="E1043">
         <v>47</v>
       </c>
-    </row>
-    <row r="1044" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
         <v>6</v>
       </c>
@@ -38299,8 +38578,11 @@
       <c r="E1044">
         <v>30</v>
       </c>
-    </row>
-    <row r="1045" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>6</v>
       </c>
@@ -38316,8 +38598,11 @@
       <c r="E1045">
         <v>99</v>
       </c>
-    </row>
-    <row r="1046" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
         <v>6</v>
       </c>
@@ -38333,8 +38618,11 @@
       <c r="E1046">
         <v>12</v>
       </c>
-    </row>
-    <row r="1047" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1046">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
         <v>6</v>
       </c>
@@ -38350,8 +38638,11 @@
       <c r="E1047">
         <v>98</v>
       </c>
-    </row>
-    <row r="1048" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>6</v>
       </c>
@@ -38367,8 +38658,11 @@
       <c r="E1048">
         <v>51</v>
       </c>
-    </row>
-    <row r="1049" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>6</v>
       </c>
@@ -38384,8 +38678,11 @@
       <c r="E1049">
         <v>49</v>
       </c>
-    </row>
-    <row r="1050" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
         <v>6</v>
       </c>
@@ -38401,8 +38698,11 @@
       <c r="E1050">
         <v>24</v>
       </c>
-    </row>
-    <row r="1051" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>6</v>
       </c>
@@ -38418,8 +38718,11 @@
       <c r="E1051">
         <v>10</v>
       </c>
-    </row>
-    <row r="1052" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1051">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>6</v>
       </c>
@@ -38435,8 +38738,11 @@
       <c r="E1052">
         <v>94</v>
       </c>
-    </row>
-    <row r="1053" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
         <v>6</v>
       </c>
@@ -38452,8 +38758,11 @@
       <c r="E1053">
         <v>49</v>
       </c>
-    </row>
-    <row r="1054" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1053">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
         <v>6</v>
       </c>
@@ -38469,8 +38778,11 @@
       <c r="E1054">
         <v>8</v>
       </c>
-    </row>
-    <row r="1055" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
         <v>6</v>
       </c>
@@ -38486,8 +38798,11 @@
       <c r="E1055">
         <v>92</v>
       </c>
-    </row>
-    <row r="1056" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
         <v>6</v>
       </c>
@@ -38503,8 +38818,11 @@
       <c r="E1056">
         <v>12</v>
       </c>
-    </row>
-    <row r="1057" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1056">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>6</v>
       </c>
@@ -38520,8 +38838,11 @@
       <c r="E1057">
         <v>77</v>
       </c>
-    </row>
-    <row r="1058" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1057">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
         <v>6</v>
       </c>
@@ -38537,8 +38858,11 @@
       <c r="E1058">
         <v>71</v>
       </c>
-    </row>
-    <row r="1059" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
         <v>6</v>
       </c>
@@ -38554,8 +38878,11 @@
       <c r="E1059">
         <v>45</v>
       </c>
-    </row>
-    <row r="1060" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
         <v>6</v>
       </c>
@@ -38571,8 +38898,11 @@
       <c r="E1060">
         <v>94</v>
       </c>
-    </row>
-    <row r="1061" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1060">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
         <v>6</v>
       </c>
@@ -38588,8 +38918,11 @@
       <c r="E1061">
         <v>4</v>
       </c>
-    </row>
-    <row r="1062" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
         <v>6</v>
       </c>
@@ -38605,8 +38938,11 @@
       <c r="E1062">
         <v>76</v>
       </c>
-    </row>
-    <row r="1063" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
         <v>6</v>
       </c>
@@ -38622,8 +38958,11 @@
       <c r="E1063">
         <v>93</v>
       </c>
-    </row>
-    <row r="1064" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
         <v>6</v>
       </c>
@@ -38639,8 +38978,11 @@
       <c r="E1064">
         <v>9</v>
       </c>
-    </row>
-    <row r="1065" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
         <v>6</v>
       </c>
@@ -38656,8 +38998,11 @@
       <c r="E1065">
         <v>63</v>
       </c>
-    </row>
-    <row r="1066" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
         <v>6</v>
       </c>
@@ -38673,8 +39018,11 @@
       <c r="E1066">
         <v>3</v>
       </c>
-    </row>
-    <row r="1067" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
         <v>6</v>
       </c>
@@ -38690,8 +39038,11 @@
       <c r="E1067">
         <v>82</v>
       </c>
-    </row>
-    <row r="1068" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
         <v>6</v>
       </c>
@@ -38707,8 +39058,11 @@
       <c r="E1068">
         <v>62</v>
       </c>
-    </row>
-    <row r="1069" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
         <v>6</v>
       </c>
@@ -38724,8 +39078,11 @@
       <c r="E1069">
         <v>11</v>
       </c>
-    </row>
-    <row r="1070" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
         <v>6</v>
       </c>
@@ -38741,8 +39098,11 @@
       <c r="E1070">
         <v>2</v>
       </c>
-    </row>
-    <row r="1071" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
         <v>6</v>
       </c>
@@ -38758,8 +39118,11 @@
       <c r="E1071">
         <v>76</v>
       </c>
-    </row>
-    <row r="1072" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
         <v>6</v>
       </c>
@@ -38775,8 +39138,11 @@
       <c r="E1072">
         <v>20</v>
       </c>
-    </row>
-    <row r="1073" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>6</v>
       </c>
@@ -38792,8 +39158,11 @@
       <c r="E1073">
         <v>29</v>
       </c>
-    </row>
-    <row r="1074" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
         <v>6</v>
       </c>
@@ -38809,8 +39178,11 @@
       <c r="E1074">
         <v>34</v>
       </c>
-    </row>
-    <row r="1075" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
         <v>6</v>
       </c>
@@ -38826,8 +39198,11 @@
       <c r="E1075">
         <v>69</v>
       </c>
-    </row>
-    <row r="1076" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
         <v>6</v>
       </c>
@@ -38843,8 +39218,11 @@
       <c r="E1076">
         <v>22</v>
       </c>
-    </row>
-    <row r="1077" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
         <v>6</v>
       </c>
@@ -38860,8 +39238,11 @@
       <c r="E1077">
         <v>82</v>
       </c>
-    </row>
-    <row r="1078" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
         <v>6</v>
       </c>
@@ -38877,8 +39258,11 @@
       <c r="E1078">
         <v>62</v>
       </c>
-    </row>
-    <row r="1079" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
         <v>6</v>
       </c>
@@ -38894,8 +39278,11 @@
       <c r="E1079">
         <v>86</v>
       </c>
-    </row>
-    <row r="1080" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1079">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>6</v>
       </c>
@@ -38911,8 +39298,11 @@
       <c r="E1080">
         <v>6</v>
       </c>
-    </row>
-    <row r="1081" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
         <v>6</v>
       </c>
@@ -38928,8 +39318,11 @@
       <c r="E1081">
         <v>30</v>
       </c>
-    </row>
-    <row r="1082" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1081">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
         <v>6</v>
       </c>
@@ -38945,8 +39338,11 @@
       <c r="E1082">
         <v>86</v>
       </c>
-    </row>
-    <row r="1083" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1082">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
         <v>6</v>
       </c>
@@ -38962,8 +39358,11 @@
       <c r="E1083">
         <v>80</v>
       </c>
-    </row>
-    <row r="1084" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
         <v>6</v>
       </c>
@@ -38979,8 +39378,11 @@
       <c r="E1084">
         <v>33</v>
       </c>
-    </row>
-    <row r="1085" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1084">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
         <v>6</v>
       </c>
@@ -38996,8 +39398,11 @@
       <c r="E1085">
         <v>16</v>
       </c>
-    </row>
-    <row r="1086" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
         <v>6</v>
       </c>
@@ -39013,8 +39418,11 @@
       <c r="E1086">
         <v>83</v>
       </c>
-    </row>
-    <row r="1087" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
         <v>6</v>
       </c>
@@ -39030,8 +39438,11 @@
       <c r="E1087">
         <v>66</v>
       </c>
-    </row>
-    <row r="1088" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
         <v>6</v>
       </c>
@@ -39047,6 +39458,9 @@
       <c r="E1088">
         <v>97</v>
       </c>
+      <c r="F1088">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
@@ -39064,6 +39478,9 @@
       <c r="E1089">
         <v>26</v>
       </c>
+      <c r="F1089">
+        <v>1</v>
+      </c>
     </row>
     <row r="1090" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
@@ -39081,6 +39498,9 @@
       <c r="E1090">
         <v>57</v>
       </c>
+      <c r="F1090">
+        <v>1</v>
+      </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
@@ -39098,6 +39518,9 @@
       <c r="E1091">
         <v>48</v>
       </c>
+      <c r="F1091">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
@@ -39115,6 +39538,9 @@
       <c r="E1092">
         <v>25</v>
       </c>
+      <c r="F1092">
+        <v>2</v>
+      </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
@@ -39131,6 +39557,9 @@
       </c>
       <c r="E1093">
         <v>36</v>
+      </c>
+      <c r="F1093">
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b866b217d0e5359/Área de Trabalho/Insper/2o semestre/Ciência dos Dados/Projeto 1/22-2b-cd-p1-grupo_joaoogp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{6AFCFE07-6B38-4DB7-9263-61A542C365A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF7A654-B8AC-4640-A7F8-458DAE48C3E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16F76A-4393-42EB-8967-89DD696D2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18115,8 +18115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A951" workbookViewId="0">
-      <selection activeCell="I954" sqref="I954"/>
+    <sheetView tabSelected="1" topLeftCell="A792" workbookViewId="0">
+      <selection activeCell="I806" sqref="I806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34236,6 +34236,9 @@
       <c r="E805">
         <v>21</v>
       </c>
+      <c r="F805">
+        <v>0</v>
+      </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
@@ -34253,6 +34256,10 @@
       <c r="E806">
         <v>68</v>
       </c>
+      <c r="F806">
+        <v>1</v>
+      </c>
+      <c r="I806" s="3"/>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
@@ -34270,6 +34277,9 @@
       <c r="E807">
         <v>88</v>
       </c>
+      <c r="F807">
+        <v>2</v>
+      </c>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
@@ -34287,6 +34297,9 @@
       <c r="E808">
         <v>5</v>
       </c>
+      <c r="F808">
+        <v>1</v>
+      </c>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
@@ -34304,6 +34317,9 @@
       <c r="E809">
         <v>82</v>
       </c>
+      <c r="F809">
+        <v>2</v>
+      </c>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
@@ -34321,6 +34337,9 @@
       <c r="E810">
         <v>11</v>
       </c>
+      <c r="F810">
+        <v>1</v>
+      </c>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
@@ -34338,6 +34357,9 @@
       <c r="E811">
         <v>26</v>
       </c>
+      <c r="F811">
+        <v>2</v>
+      </c>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
@@ -34355,6 +34377,9 @@
       <c r="E812">
         <v>24</v>
       </c>
+      <c r="F812">
+        <v>1</v>
+      </c>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
@@ -34372,6 +34397,9 @@
       <c r="E813">
         <v>56</v>
       </c>
+      <c r="F813">
+        <v>1</v>
+      </c>
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
@@ -34389,6 +34417,9 @@
       <c r="E814">
         <v>23</v>
       </c>
+      <c r="F814">
+        <v>1</v>
+      </c>
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
@@ -34406,6 +34437,9 @@
       <c r="E815">
         <v>81</v>
       </c>
+      <c r="F815">
+        <v>1</v>
+      </c>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
@@ -34423,8 +34457,11 @@
       <c r="E816">
         <v>2</v>
       </c>
-    </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>6</v>
       </c>
@@ -34440,8 +34477,11 @@
       <c r="E817">
         <v>56</v>
       </c>
-    </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>6</v>
       </c>
@@ -34457,8 +34497,11 @@
       <c r="E818">
         <v>100</v>
       </c>
-    </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>6</v>
       </c>
@@ -34474,8 +34517,11 @@
       <c r="E819">
         <v>97</v>
       </c>
-    </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F819">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>6</v>
       </c>
@@ -34491,8 +34537,11 @@
       <c r="E820">
         <v>22</v>
       </c>
-    </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F820">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>6</v>
       </c>
@@ -34508,8 +34557,11 @@
       <c r="E821">
         <v>15</v>
       </c>
-    </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>6</v>
       </c>
@@ -34525,8 +34577,11 @@
       <c r="E822">
         <v>37</v>
       </c>
-    </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>6</v>
       </c>
@@ -34542,8 +34597,11 @@
       <c r="E823">
         <v>87</v>
       </c>
-    </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>6</v>
       </c>
@@ -34559,8 +34617,11 @@
       <c r="E824">
         <v>9</v>
       </c>
-    </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>6</v>
       </c>
@@ -34576,8 +34637,11 @@
       <c r="E825">
         <v>22</v>
       </c>
-    </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>6</v>
       </c>
@@ -34593,8 +34657,11 @@
       <c r="E826">
         <v>18</v>
       </c>
-    </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>6</v>
       </c>
@@ -34610,8 +34677,11 @@
       <c r="E827">
         <v>56</v>
       </c>
-    </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>6</v>
       </c>
@@ -34627,8 +34697,11 @@
       <c r="E828">
         <v>16</v>
       </c>
-    </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>6</v>
       </c>
@@ -34644,8 +34717,11 @@
       <c r="E829">
         <v>70</v>
       </c>
-    </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>6</v>
       </c>
@@ -34661,8 +34737,11 @@
       <c r="E830">
         <v>51</v>
       </c>
-    </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>6</v>
       </c>
@@ -34678,8 +34757,11 @@
       <c r="E831">
         <v>58</v>
       </c>
-    </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>6</v>
       </c>
@@ -34695,8 +34777,11 @@
       <c r="E832">
         <v>44</v>
       </c>
-    </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>6</v>
       </c>
@@ -34712,8 +34797,11 @@
       <c r="E833">
         <v>37</v>
       </c>
-    </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>6</v>
       </c>
@@ -34729,8 +34817,11 @@
       <c r="E834">
         <v>87</v>
       </c>
-    </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>6</v>
       </c>
@@ -34746,8 +34837,11 @@
       <c r="E835">
         <v>18</v>
       </c>
-    </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F835">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>6</v>
       </c>
@@ -34763,8 +34857,11 @@
       <c r="E836">
         <v>40</v>
       </c>
-    </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F836">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>6</v>
       </c>
@@ -34780,8 +34877,11 @@
       <c r="E837">
         <v>32</v>
       </c>
-    </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>6</v>
       </c>
@@ -34797,8 +34897,11 @@
       <c r="E838">
         <v>30</v>
       </c>
-    </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>6</v>
       </c>
@@ -34814,8 +34917,11 @@
       <c r="E839">
         <v>98</v>
       </c>
-    </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F839">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>6</v>
       </c>
@@ -34831,8 +34937,11 @@
       <c r="E840">
         <v>56</v>
       </c>
-    </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>6</v>
       </c>
@@ -34848,8 +34957,11 @@
       <c r="E841">
         <v>96</v>
       </c>
-    </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>6</v>
       </c>
@@ -34865,8 +34977,11 @@
       <c r="E842">
         <v>25</v>
       </c>
-    </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>6</v>
       </c>
@@ -34882,8 +34997,11 @@
       <c r="E843">
         <v>31</v>
       </c>
-    </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>6</v>
       </c>
@@ -34899,8 +35017,11 @@
       <c r="E844">
         <v>29</v>
       </c>
-    </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F844">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>6</v>
       </c>
@@ -34916,8 +35037,11 @@
       <c r="E845">
         <v>99</v>
       </c>
-    </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>6</v>
       </c>
@@ -34933,8 +35057,11 @@
       <c r="E846">
         <v>47</v>
       </c>
-    </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>6</v>
       </c>
@@ -34950,8 +35077,11 @@
       <c r="E847">
         <v>38</v>
       </c>
-    </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>6</v>
       </c>
@@ -34967,8 +35097,11 @@
       <c r="E848">
         <v>1</v>
       </c>
-    </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>6</v>
       </c>
@@ -34984,8 +35117,11 @@
       <c r="E849">
         <v>83</v>
       </c>
-    </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F849">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>6</v>
       </c>
@@ -35001,8 +35137,11 @@
       <c r="E850">
         <v>45</v>
       </c>
-    </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>6</v>
       </c>
@@ -35018,8 +35157,11 @@
       <c r="E851">
         <v>8</v>
       </c>
-    </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>6</v>
       </c>
@@ -35035,8 +35177,11 @@
       <c r="E852">
         <v>36</v>
       </c>
-    </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>6</v>
       </c>
@@ -35052,8 +35197,11 @@
       <c r="E853">
         <v>82</v>
       </c>
-    </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>6</v>
       </c>
@@ -35069,8 +35217,11 @@
       <c r="E854">
         <v>8</v>
       </c>
-    </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>6</v>
       </c>
@@ -35086,8 +35237,11 @@
       <c r="E855">
         <v>7</v>
       </c>
-    </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>6</v>
       </c>
@@ -35103,8 +35257,11 @@
       <c r="E856">
         <v>36</v>
       </c>
-    </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>6</v>
       </c>
@@ -35120,8 +35277,11 @@
       <c r="E857">
         <v>76</v>
       </c>
-    </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F857">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>6</v>
       </c>
@@ -35137,8 +35297,11 @@
       <c r="E858">
         <v>27</v>
       </c>
-    </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F858">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>6</v>
       </c>
@@ -35154,8 +35317,11 @@
       <c r="E859">
         <v>91</v>
       </c>
-    </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>6</v>
       </c>
@@ -35171,8 +35337,11 @@
       <c r="E860">
         <v>45</v>
       </c>
-    </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>6</v>
       </c>
@@ -35188,8 +35357,11 @@
       <c r="E861">
         <v>11</v>
       </c>
-    </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>6</v>
       </c>
@@ -35205,8 +35377,11 @@
       <c r="E862">
         <v>43</v>
       </c>
-    </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>6</v>
       </c>
@@ -35222,8 +35397,11 @@
       <c r="E863">
         <v>1</v>
       </c>
-    </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>6</v>
       </c>
@@ -35239,8 +35417,11 @@
       <c r="E864">
         <v>92</v>
       </c>
-    </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F864">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>6</v>
       </c>
@@ -35256,8 +35437,11 @@
       <c r="E865">
         <v>39</v>
       </c>
-    </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>6</v>
       </c>
@@ -35273,8 +35457,11 @@
       <c r="E866">
         <v>59</v>
       </c>
-    </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>6</v>
       </c>
@@ -35290,8 +35477,11 @@
       <c r="E867">
         <v>40</v>
       </c>
-    </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>6</v>
       </c>
@@ -35307,8 +35497,11 @@
       <c r="E868">
         <v>86</v>
       </c>
-    </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F868">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>6</v>
       </c>
@@ -35324,8 +35517,11 @@
       <c r="E869">
         <v>52</v>
       </c>
-    </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F869">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>6</v>
       </c>
@@ -35341,8 +35537,11 @@
       <c r="E870">
         <v>69</v>
       </c>
-    </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F870">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>6</v>
       </c>
@@ -35358,8 +35557,11 @@
       <c r="E871">
         <v>69</v>
       </c>
-    </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>6</v>
       </c>
@@ -35375,8 +35577,11 @@
       <c r="E872">
         <v>91</v>
       </c>
-    </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>6</v>
       </c>
@@ -35392,8 +35597,11 @@
       <c r="E873">
         <v>52</v>
       </c>
-    </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F873">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>6</v>
       </c>
@@ -35409,8 +35617,11 @@
       <c r="E874">
         <v>76</v>
       </c>
-    </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>6</v>
       </c>
@@ -35426,8 +35637,11 @@
       <c r="E875">
         <v>97</v>
       </c>
-    </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F875">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>6</v>
       </c>
@@ -35443,8 +35657,11 @@
       <c r="E876">
         <v>94</v>
       </c>
-    </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>6</v>
       </c>
@@ -35460,8 +35677,11 @@
       <c r="E877">
         <v>70</v>
       </c>
-    </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F877">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>6</v>
       </c>
@@ -35477,8 +35697,11 @@
       <c r="E878">
         <v>2</v>
       </c>
-    </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F878">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>6</v>
       </c>
@@ -35494,8 +35717,11 @@
       <c r="E879">
         <v>57</v>
       </c>
-    </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>6</v>
       </c>
@@ -35511,8 +35737,11 @@
       <c r="E880">
         <v>51</v>
       </c>
-    </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>6</v>
       </c>
@@ -35528,8 +35757,11 @@
       <c r="E881">
         <v>56</v>
       </c>
-    </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>6</v>
       </c>
@@ -35545,8 +35777,11 @@
       <c r="E882">
         <v>54</v>
       </c>
-    </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F882">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>6</v>
       </c>
@@ -35562,8 +35797,11 @@
       <c r="E883">
         <v>22</v>
       </c>
-    </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>6</v>
       </c>
@@ -35579,8 +35817,11 @@
       <c r="E884">
         <v>19</v>
       </c>
-    </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>6</v>
       </c>
@@ -35596,8 +35837,11 @@
       <c r="E885">
         <v>95</v>
       </c>
-    </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>6</v>
       </c>
@@ -35613,8 +35857,11 @@
       <c r="E886">
         <v>64</v>
       </c>
-    </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F886">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>6</v>
       </c>
@@ -35630,8 +35877,11 @@
       <c r="E887">
         <v>49</v>
       </c>
-    </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>6</v>
       </c>
@@ -35647,8 +35897,11 @@
       <c r="E888">
         <v>62</v>
       </c>
-    </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>6</v>
       </c>
@@ -35664,8 +35917,11 @@
       <c r="E889">
         <v>73</v>
       </c>
-    </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F889">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>6</v>
       </c>
@@ -35681,8 +35937,11 @@
       <c r="E890">
         <v>24</v>
       </c>
-    </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F890">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>6</v>
       </c>
@@ -35698,8 +35957,11 @@
       <c r="E891">
         <v>13</v>
       </c>
-    </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F891">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>6</v>
       </c>
@@ -35715,8 +35977,11 @@
       <c r="E892">
         <v>72</v>
       </c>
-    </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>6</v>
       </c>
@@ -35732,8 +35997,11 @@
       <c r="E893">
         <v>72</v>
       </c>
-    </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>6</v>
       </c>
@@ -35749,8 +36017,11 @@
       <c r="E894">
         <v>53</v>
       </c>
-    </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>6</v>
       </c>
@@ -35766,8 +36037,11 @@
       <c r="E895">
         <v>68</v>
       </c>
-    </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>6</v>
       </c>
@@ -35783,8 +36057,11 @@
       <c r="E896">
         <v>24</v>
       </c>
-    </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>6</v>
       </c>
@@ -35800,8 +36077,11 @@
       <c r="E897">
         <v>31</v>
       </c>
-    </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F897">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>6</v>
       </c>
@@ -35817,8 +36097,11 @@
       <c r="E898">
         <v>49</v>
       </c>
-    </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>6</v>
       </c>
@@ -35834,8 +36117,11 @@
       <c r="E899">
         <v>65</v>
       </c>
-    </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>6</v>
       </c>
@@ -35851,8 +36137,11 @@
       <c r="E900">
         <v>90</v>
       </c>
-    </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>6</v>
       </c>
@@ -35868,8 +36157,11 @@
       <c r="E901">
         <v>21</v>
       </c>
-    </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>6</v>
       </c>
@@ -35885,8 +36177,11 @@
       <c r="E902">
         <v>82</v>
       </c>
-    </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>6</v>
       </c>
@@ -35902,8 +36197,11 @@
       <c r="E903">
         <v>46</v>
       </c>
-    </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>6</v>
       </c>
@@ -35919,8 +36217,11 @@
       <c r="E904">
         <v>32</v>
       </c>
-    </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F904">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>6</v>
       </c>
@@ -35936,8 +36237,11 @@
       <c r="E905">
         <v>32</v>
       </c>
-    </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>6</v>
       </c>
@@ -35953,8 +36257,11 @@
       <c r="E906">
         <v>68</v>
       </c>
-    </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>6</v>
       </c>
@@ -35970,8 +36277,11 @@
       <c r="E907">
         <v>27</v>
       </c>
-    </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>6</v>
       </c>
@@ -35987,8 +36297,11 @@
       <c r="E908">
         <v>68</v>
       </c>
-    </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>6</v>
       </c>
@@ -36004,8 +36317,11 @@
       <c r="E909">
         <v>17</v>
       </c>
-    </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>6</v>
       </c>
@@ -36021,8 +36337,11 @@
       <c r="E910">
         <v>68</v>
       </c>
-    </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>6</v>
       </c>
@@ -36038,8 +36357,11 @@
       <c r="E911">
         <v>52</v>
       </c>
-    </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>6</v>
       </c>
@@ -36055,8 +36377,11 @@
       <c r="E912">
         <v>86</v>
       </c>
-    </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>6</v>
       </c>
@@ -36072,8 +36397,11 @@
       <c r="E913">
         <v>29</v>
       </c>
-    </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>6</v>
       </c>
@@ -36089,8 +36417,11 @@
       <c r="E914">
         <v>73</v>
       </c>
-    </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F914">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>6</v>
       </c>
@@ -36106,8 +36437,11 @@
       <c r="E915">
         <v>23</v>
       </c>
-    </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F915">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>6</v>
       </c>
@@ -36123,8 +36457,11 @@
       <c r="E916">
         <v>18</v>
       </c>
-    </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>6</v>
       </c>
@@ -36140,8 +36477,11 @@
       <c r="E917">
         <v>97</v>
       </c>
-    </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>6</v>
       </c>
@@ -36157,8 +36497,11 @@
       <c r="E918">
         <v>74</v>
       </c>
-    </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>6</v>
       </c>
@@ -36174,8 +36517,11 @@
       <c r="E919">
         <v>16</v>
       </c>
-    </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>6</v>
       </c>
@@ -36191,8 +36537,11 @@
       <c r="E920">
         <v>100</v>
       </c>
-    </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>6</v>
       </c>
@@ -36208,8 +36557,11 @@
       <c r="E921">
         <v>36</v>
       </c>
-    </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>6</v>
       </c>
@@ -36225,8 +36577,11 @@
       <c r="E922">
         <v>56</v>
       </c>
-    </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>6</v>
       </c>
@@ -36242,8 +36597,11 @@
       <c r="E923">
         <v>8</v>
       </c>
-    </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>6</v>
       </c>
@@ -36259,8 +36617,11 @@
       <c r="E924">
         <v>67</v>
       </c>
-    </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F924">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>6</v>
       </c>
@@ -36276,8 +36637,11 @@
       <c r="E925">
         <v>86</v>
       </c>
-    </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>6</v>
       </c>
@@ -36293,8 +36657,11 @@
       <c r="E926">
         <v>11</v>
       </c>
-    </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>6</v>
       </c>
@@ -36310,8 +36677,11 @@
       <c r="E927">
         <v>6</v>
       </c>
-    </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>6</v>
       </c>
@@ -36327,8 +36697,11 @@
       <c r="E928">
         <v>37</v>
       </c>
-    </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>6</v>
       </c>
@@ -36344,8 +36717,11 @@
       <c r="E929">
         <v>51</v>
       </c>
-    </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>6</v>
       </c>
@@ -36361,8 +36737,11 @@
       <c r="E930">
         <v>96</v>
       </c>
-    </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F930">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>6</v>
       </c>
@@ -36378,8 +36757,11 @@
       <c r="E931">
         <v>53</v>
       </c>
-    </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>6</v>
       </c>
@@ -36395,8 +36777,11 @@
       <c r="E932">
         <v>91</v>
       </c>
-    </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>6</v>
       </c>
@@ -36412,8 +36797,11 @@
       <c r="E933">
         <v>87</v>
       </c>
-    </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>6</v>
       </c>
@@ -36429,8 +36817,11 @@
       <c r="E934">
         <v>29</v>
       </c>
-    </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>6</v>
       </c>
@@ -36446,8 +36837,11 @@
       <c r="E935">
         <v>25</v>
       </c>
-    </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>6</v>
       </c>
@@ -36463,8 +36857,11 @@
       <c r="E936">
         <v>36</v>
       </c>
-    </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>6</v>
       </c>
@@ -36480,8 +36877,11 @@
       <c r="E937">
         <v>88</v>
       </c>
-    </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>6</v>
       </c>
@@ -36497,8 +36897,11 @@
       <c r="E938">
         <v>41</v>
       </c>
-    </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>6</v>
       </c>
@@ -36514,8 +36917,11 @@
       <c r="E939">
         <v>80</v>
       </c>
-    </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>6</v>
       </c>
@@ -36531,8 +36937,11 @@
       <c r="E940">
         <v>52</v>
       </c>
-    </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>6</v>
       </c>
@@ -36548,8 +36957,11 @@
       <c r="E941">
         <v>34</v>
       </c>
-    </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>6</v>
       </c>
@@ -36565,8 +36977,11 @@
       <c r="E942">
         <v>93</v>
       </c>
-    </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>6</v>
       </c>
@@ -36582,8 +36997,11 @@
       <c r="E943">
         <v>28</v>
       </c>
-    </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>6</v>
       </c>
@@ -36599,6 +37017,9 @@
       <c r="E944">
         <v>35</v>
       </c>
+      <c r="F944">
+        <v>1</v>
+      </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
@@ -36616,6 +37037,9 @@
       <c r="E945">
         <v>6</v>
       </c>
+      <c r="F945">
+        <v>1</v>
+      </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
@@ -36633,6 +37057,9 @@
       <c r="E946">
         <v>66</v>
       </c>
+      <c r="F946">
+        <v>1</v>
+      </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
@@ -36650,6 +37077,9 @@
       <c r="E947">
         <v>95</v>
       </c>
+      <c r="F947">
+        <v>1</v>
+      </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
@@ -36667,6 +37097,9 @@
       <c r="E948">
         <v>1</v>
       </c>
+      <c r="F948">
+        <v>1</v>
+      </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
@@ -36684,6 +37117,9 @@
       <c r="E949">
         <v>9</v>
       </c>
+      <c r="F949">
+        <v>2</v>
+      </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
@@ -36700,6 +37136,9 @@
       </c>
       <c r="E950">
         <v>47</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16F76A-4393-42EB-8967-89DD696D2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503ED185-6242-4B49-B639-BC64EE51E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -18115,7 +18115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A792" workbookViewId="0">
+    <sheetView topLeftCell="A792" workbookViewId="0">
       <selection activeCell="I806" sqref="I806"/>
     </sheetView>
   </sheetViews>
@@ -42169,13 +42169,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F801"/>
+  <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -42195,7 +42197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -42211,8 +42213,11 @@
       <c r="E2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -42228,8 +42233,11 @@
       <c r="E3">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -42245,8 +42253,11 @@
       <c r="E4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -42262,8 +42273,12 @@
       <c r="E5">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -42279,8 +42294,11 @@
       <c r="E6">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -42296,8 +42314,11 @@
       <c r="E7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -42313,8 +42334,11 @@
       <c r="E8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -42330,8 +42354,11 @@
       <c r="E9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -42347,8 +42374,11 @@
       <c r="E10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -42364,8 +42394,11 @@
       <c r="E11">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -42381,8 +42414,11 @@
       <c r="E12">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -42398,8 +42434,11 @@
       <c r="E13">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -42415,8 +42454,11 @@
       <c r="E14">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -42432,8 +42474,11 @@
       <c r="E15">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -42449,8 +42494,11 @@
       <c r="E16">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -42466,8 +42514,11 @@
       <c r="E17">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -42483,8 +42534,11 @@
       <c r="E18">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -42500,8 +42554,11 @@
       <c r="E19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -42517,8 +42574,11 @@
       <c r="E20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -42534,8 +42594,11 @@
       <c r="E21">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -42551,8 +42614,11 @@
       <c r="E22">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -42568,8 +42634,11 @@
       <c r="E23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -42585,8 +42654,11 @@
       <c r="E24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -42602,8 +42674,11 @@
       <c r="E25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -42619,8 +42694,11 @@
       <c r="E26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -42636,8 +42714,11 @@
       <c r="E27">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -42653,8 +42734,11 @@
       <c r="E28">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -42670,8 +42754,11 @@
       <c r="E29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -42687,8 +42774,11 @@
       <c r="E30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -42704,8 +42794,11 @@
       <c r="E31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -42721,8 +42814,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -42738,8 +42834,11 @@
       <c r="E33">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -42755,8 +42854,11 @@
       <c r="E34">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -42772,8 +42874,11 @@
       <c r="E35">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -42789,8 +42894,11 @@
       <c r="E36">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -42806,8 +42914,11 @@
       <c r="E37">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -42823,8 +42934,11 @@
       <c r="E38">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -42840,8 +42954,11 @@
       <c r="E39">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -42857,8 +42974,11 @@
       <c r="E40">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -42874,8 +42994,11 @@
       <c r="E41">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -42891,8 +43014,11 @@
       <c r="E42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -42908,8 +43034,11 @@
       <c r="E43">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -42925,8 +43054,11 @@
       <c r="E44">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -42942,8 +43074,11 @@
       <c r="E45">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -42959,8 +43094,11 @@
       <c r="E46">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -42976,8 +43114,11 @@
       <c r="E47">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -42993,8 +43134,11 @@
       <c r="E48">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -43010,8 +43154,11 @@
       <c r="E49">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -43027,8 +43174,11 @@
       <c r="E50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -43044,8 +43194,11 @@
       <c r="E51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -43061,8 +43214,11 @@
       <c r="E52">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -43078,8 +43234,11 @@
       <c r="E53">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -43095,8 +43254,11 @@
       <c r="E54">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -43112,8 +43274,11 @@
       <c r="E55">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -43129,8 +43294,11 @@
       <c r="E56">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -43146,8 +43314,11 @@
       <c r="E57">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -43163,8 +43334,11 @@
       <c r="E58">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -43180,8 +43354,11 @@
       <c r="E59">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -43197,8 +43374,11 @@
       <c r="E60">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -43214,8 +43394,11 @@
       <c r="E61">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -43231,8 +43414,11 @@
       <c r="E62">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -43248,8 +43434,11 @@
       <c r="E63">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -43265,8 +43454,11 @@
       <c r="E64">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -43282,8 +43474,11 @@
       <c r="E65">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -43299,8 +43494,11 @@
       <c r="E66">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -43316,8 +43514,11 @@
       <c r="E67">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -43333,8 +43534,11 @@
       <c r="E68">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -43350,8 +43554,11 @@
       <c r="E69">
         <v>26</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -43367,8 +43574,11 @@
       <c r="E70">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -43384,8 +43594,11 @@
       <c r="E71">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -43401,8 +43614,11 @@
       <c r="E72">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -43418,8 +43634,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -43435,8 +43654,11 @@
       <c r="E74">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -43452,8 +43674,11 @@
       <c r="E75">
         <v>43</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -43469,8 +43694,11 @@
       <c r="E76">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -43486,8 +43714,11 @@
       <c r="E77">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -43503,8 +43734,11 @@
       <c r="E78">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -43520,8 +43754,11 @@
       <c r="E79">
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -43537,8 +43774,11 @@
       <c r="E80">
         <v>47</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -43554,8 +43794,11 @@
       <c r="E81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -43571,8 +43814,11 @@
       <c r="E82">
         <v>71</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -43588,8 +43834,11 @@
       <c r="E83">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -43605,8 +43854,11 @@
       <c r="E84">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -43622,8 +43874,11 @@
       <c r="E85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -43639,8 +43894,11 @@
       <c r="E86">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -43656,8 +43914,11 @@
       <c r="E87">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -43673,8 +43934,11 @@
       <c r="E88">
         <v>80</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -43690,8 +43954,11 @@
       <c r="E89">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -43707,8 +43974,11 @@
       <c r="E90">
         <v>44</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -43724,8 +43994,11 @@
       <c r="E91">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -43741,8 +44014,11 @@
       <c r="E92">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -43758,8 +44034,11 @@
       <c r="E93">
         <v>63</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -43775,8 +44054,11 @@
       <c r="E94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -43792,8 +44074,11 @@
       <c r="E95">
         <v>87</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -43809,8 +44094,11 @@
       <c r="E96">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -43826,8 +44114,11 @@
       <c r="E97">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -43843,8 +44134,11 @@
       <c r="E98">
         <v>93</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -43860,8 +44154,11 @@
       <c r="E99">
         <v>53</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -43877,8 +44174,11 @@
       <c r="E100">
         <v>80</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -43894,8 +44194,11 @@
       <c r="E101">
         <v>51</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -43911,8 +44214,11 @@
       <c r="E102">
         <v>71</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -43928,8 +44234,11 @@
       <c r="E103">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -43945,8 +44254,11 @@
       <c r="E104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -43962,8 +44274,11 @@
       <c r="E105">
         <v>63</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -43979,8 +44294,11 @@
       <c r="E106">
         <v>46</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -43996,8 +44314,11 @@
       <c r="E107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -44013,8 +44334,11 @@
       <c r="E108">
         <v>53</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -44030,8 +44354,11 @@
       <c r="E109">
         <v>71</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -44047,8 +44374,11 @@
       <c r="E110">
         <v>73</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -44064,8 +44394,11 @@
       <c r="E111">
         <v>49</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -44081,8 +44414,11 @@
       <c r="E112">
         <v>89</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -44098,8 +44434,11 @@
       <c r="E113">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -44115,8 +44454,11 @@
       <c r="E114">
         <v>71</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -44132,8 +44474,11 @@
       <c r="E115">
         <v>96</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -44149,8 +44494,11 @@
       <c r="E116">
         <v>29</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -44166,8 +44514,11 @@
       <c r="E117">
         <v>48</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -44183,8 +44534,11 @@
       <c r="E118">
         <v>34</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -44200,8 +44554,11 @@
       <c r="E119">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -44217,8 +44574,11 @@
       <c r="E120">
         <v>84</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -44234,8 +44594,11 @@
       <c r="E121">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -44251,8 +44614,11 @@
       <c r="E122">
         <v>73</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -44268,8 +44634,11 @@
       <c r="E123">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -44285,8 +44654,11 @@
       <c r="E124">
         <v>51</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -44302,8 +44674,11 @@
       <c r="E125">
         <v>77</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -44319,8 +44694,11 @@
       <c r="E126">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -44336,8 +44714,11 @@
       <c r="E127">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -44353,8 +44734,11 @@
       <c r="E128">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -44370,8 +44754,11 @@
       <c r="E129">
         <v>58</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -44387,8 +44774,11 @@
       <c r="E130">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -44404,8 +44794,11 @@
       <c r="E131">
         <v>59</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -44421,8 +44814,11 @@
       <c r="E132">
         <v>81</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -44438,8 +44834,11 @@
       <c r="E133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -44455,8 +44854,11 @@
       <c r="E134">
         <v>48</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -44472,8 +44874,11 @@
       <c r="E135">
         <v>85</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -44489,8 +44894,11 @@
       <c r="E136">
         <v>91</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -44506,8 +44914,11 @@
       <c r="E137">
         <v>42</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -44523,8 +44934,11 @@
       <c r="E138">
         <v>48</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -44540,8 +44954,11 @@
       <c r="E139">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -44557,8 +44974,11 @@
       <c r="E140">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -44574,8 +44994,11 @@
       <c r="E141">
         <v>88</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -44591,8 +45014,11 @@
       <c r="E142">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -44608,8 +45034,11 @@
       <c r="E143">
         <v>41</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -44625,8 +45054,11 @@
       <c r="E144">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -44642,8 +45074,11 @@
       <c r="E145">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -44659,8 +45094,11 @@
       <c r="E146">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -44676,8 +45114,11 @@
       <c r="E147">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -44693,8 +45134,11 @@
       <c r="E148">
         <v>76</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -44710,8 +45154,11 @@
       <c r="E149">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -44727,8 +45174,11 @@
       <c r="E150">
         <v>86</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -44744,8 +45194,11 @@
       <c r="E151">
         <v>99</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -44761,8 +45214,11 @@
       <c r="E152">
         <v>56</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -44778,8 +45234,11 @@
       <c r="E153">
         <v>94</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -44795,8 +45254,11 @@
       <c r="E154">
         <v>62</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -44812,8 +45274,11 @@
       <c r="E155">
         <v>80</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -44829,8 +45294,11 @@
       <c r="E156">
         <v>78</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -44846,8 +45314,11 @@
       <c r="E157">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -44863,8 +45334,11 @@
       <c r="E158">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -44880,8 +45354,11 @@
       <c r="E159">
         <v>37</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -44897,8 +45374,11 @@
       <c r="E160">
         <v>39</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -44914,8 +45394,11 @@
       <c r="E161">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -44931,8 +45414,11 @@
       <c r="E162">
         <v>94</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -44948,8 +45434,11 @@
       <c r="E163">
         <v>42</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -44965,8 +45454,11 @@
       <c r="E164">
         <v>33</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -44982,8 +45474,11 @@
       <c r="E165">
         <v>92</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -44999,8 +45494,11 @@
       <c r="E166">
         <v>82</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -45016,8 +45514,11 @@
       <c r="E167">
         <v>40</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -45033,8 +45534,11 @@
       <c r="E168">
         <v>55</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -45050,8 +45554,11 @@
       <c r="E169">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -45067,8 +45574,11 @@
       <c r="E170">
         <v>35</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -45084,8 +45594,11 @@
       <c r="E171">
         <v>57</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -45101,8 +45614,11 @@
       <c r="E172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -45118,8 +45634,11 @@
       <c r="E173">
         <v>33</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -45135,8 +45654,11 @@
       <c r="E174">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -45152,8 +45674,11 @@
       <c r="E175">
         <v>55</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -45169,8 +45694,11 @@
       <c r="E176">
         <v>95</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -45186,8 +45714,11 @@
       <c r="E177">
         <v>97</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -45203,8 +45734,11 @@
       <c r="E178">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -45220,8 +45754,11 @@
       <c r="E179">
         <v>51</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -45237,8 +45774,11 @@
       <c r="E180">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -45254,8 +45794,11 @@
       <c r="E181">
         <v>18</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -45271,8 +45814,11 @@
       <c r="E182">
         <v>57</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -45288,8 +45834,11 @@
       <c r="E183">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -45305,8 +45854,11 @@
       <c r="E184">
         <v>64</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -45322,8 +45874,11 @@
       <c r="E185">
         <v>33</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -45339,8 +45894,11 @@
       <c r="E186">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -45356,8 +45914,11 @@
       <c r="E187">
         <v>82</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -45373,8 +45934,11 @@
       <c r="E188">
         <v>65</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -45390,8 +45954,11 @@
       <c r="E189">
         <v>77</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -45407,8 +45974,11 @@
       <c r="E190">
         <v>71</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -45424,8 +45994,11 @@
       <c r="E191">
         <v>75</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -45441,8 +46014,11 @@
       <c r="E192">
         <v>71</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -45458,8 +46034,11 @@
       <c r="E193">
         <v>30</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -45475,8 +46054,11 @@
       <c r="E194">
         <v>22</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -45492,8 +46074,11 @@
       <c r="E195">
         <v>65</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -45509,8 +46094,11 @@
       <c r="E196">
         <v>88</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -45526,8 +46114,11 @@
       <c r="E197">
         <v>57</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -45543,8 +46134,11 @@
       <c r="E198">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -45560,8 +46154,11 @@
       <c r="E199">
         <v>93</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -45577,8 +46174,11 @@
       <c r="E200">
         <v>65</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -45594,8 +46194,11 @@
       <c r="E201">
         <v>88</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -45611,8 +46214,11 @@
       <c r="E202">
         <v>71</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -45628,8 +46234,11 @@
       <c r="E203">
         <v>20</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -45645,8 +46254,11 @@
       <c r="E204">
         <v>60</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -45662,8 +46274,11 @@
       <c r="E205">
         <v>59</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -45679,8 +46294,11 @@
       <c r="E206">
         <v>47</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -45696,8 +46314,11 @@
       <c r="E207">
         <v>29</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -45713,8 +46334,11 @@
       <c r="E208">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -45730,8 +46354,11 @@
       <c r="E209">
         <v>100</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -45747,8 +46374,11 @@
       <c r="E210">
         <v>63</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -45764,8 +46394,11 @@
       <c r="E211">
         <v>44</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -45781,8 +46414,11 @@
       <c r="E212">
         <v>33</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -45798,8 +46434,11 @@
       <c r="E213">
         <v>80</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -45815,8 +46454,11 @@
       <c r="E214">
         <v>73</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -45832,8 +46474,11 @@
       <c r="E215">
         <v>53</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -45849,8 +46494,11 @@
       <c r="E216">
         <v>78</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -45866,8 +46514,11 @@
       <c r="E217">
         <v>50</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -45883,8 +46534,11 @@
       <c r="E218">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -45900,8 +46554,11 @@
       <c r="E219">
         <v>97</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -45917,8 +46574,11 @@
       <c r="E220">
         <v>36</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -45934,8 +46594,11 @@
       <c r="E221">
         <v>24</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -45951,8 +46614,11 @@
       <c r="E222">
         <v>59</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -45968,8 +46634,11 @@
       <c r="E223">
         <v>41</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -45985,8 +46654,11 @@
       <c r="E224">
         <v>70</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -46002,8 +46674,11 @@
       <c r="E225">
         <v>90</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -46019,8 +46694,11 @@
       <c r="E226">
         <v>75</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -46036,8 +46714,11 @@
       <c r="E227">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -46053,8 +46734,11 @@
       <c r="E228">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -46070,8 +46754,11 @@
       <c r="E229">
         <v>90</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -46087,8 +46774,11 @@
       <c r="E230">
         <v>85</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -46104,8 +46794,11 @@
       <c r="E231">
         <v>34</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -46121,8 +46814,11 @@
       <c r="E232">
         <v>22</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -46138,8 +46834,11 @@
       <c r="E233">
         <v>56</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -46155,8 +46854,11 @@
       <c r="E234">
         <v>14</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -46172,8 +46874,11 @@
       <c r="E235">
         <v>98</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -46189,8 +46894,11 @@
       <c r="E236">
         <v>41</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -46206,8 +46914,11 @@
       <c r="E237">
         <v>78</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -46223,8 +46934,11 @@
       <c r="E238">
         <v>59</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -46240,8 +46954,11 @@
       <c r="E239">
         <v>11</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -46257,8 +46974,11 @@
       <c r="E240">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -46274,8 +46994,11 @@
       <c r="E241">
         <v>11</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -46291,8 +47014,11 @@
       <c r="E242">
         <v>51</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -46308,8 +47034,11 @@
       <c r="E243">
         <v>62</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -46325,8 +47054,11 @@
       <c r="E244">
         <v>44</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -46342,8 +47074,11 @@
       <c r="E245">
         <v>64</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -46359,8 +47094,11 @@
       <c r="E246">
         <v>55</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -46376,8 +47114,11 @@
       <c r="E247">
         <v>92</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -46393,8 +47134,11 @@
       <c r="E248">
         <v>63</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -46410,8 +47154,11 @@
       <c r="E249">
         <v>59</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -46427,8 +47174,11 @@
       <c r="E250">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -46444,8 +47194,11 @@
       <c r="E251">
         <v>71</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -46461,8 +47214,11 @@
       <c r="E252">
         <v>85</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -46478,8 +47234,11 @@
       <c r="E253">
         <v>67</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -46495,8 +47254,11 @@
       <c r="E254">
         <v>86</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -46512,8 +47274,11 @@
       <c r="E255">
         <v>67</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -46529,8 +47294,11 @@
       <c r="E256">
         <v>76</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -46546,8 +47314,11 @@
       <c r="E257">
         <v>66</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -46563,8 +47334,11 @@
       <c r="E258">
         <v>72</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -46580,8 +47354,11 @@
       <c r="E259">
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -46597,8 +47374,11 @@
       <c r="E260">
         <v>39</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -46614,8 +47394,11 @@
       <c r="E261">
         <v>72</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -46631,8 +47414,11 @@
       <c r="E262">
         <v>83</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -46648,8 +47434,11 @@
       <c r="E263">
         <v>67</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -46665,8 +47454,11 @@
       <c r="E264">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -46682,8 +47474,11 @@
       <c r="E265">
         <v>47</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -46699,8 +47494,11 @@
       <c r="E266">
         <v>92</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -46716,8 +47514,11 @@
       <c r="E267">
         <v>72</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -46733,8 +47534,11 @@
       <c r="E268">
         <v>69</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -46750,8 +47554,11 @@
       <c r="E269">
         <v>49</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -46767,8 +47574,11 @@
       <c r="E270">
         <v>30</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -46784,8 +47594,11 @@
       <c r="E271">
         <v>76</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -46801,8 +47614,11 @@
       <c r="E272">
         <v>49</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -46818,8 +47634,11 @@
       <c r="E273">
         <v>86</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -46835,8 +47654,11 @@
       <c r="E274">
         <v>86</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -46852,8 +47674,11 @@
       <c r="E275">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -46869,8 +47694,11 @@
       <c r="E276">
         <v>96</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -46886,8 +47714,11 @@
       <c r="E277">
         <v>33</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -46903,8 +47734,11 @@
       <c r="E278">
         <v>36</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -46920,8 +47754,11 @@
       <c r="E279">
         <v>66</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -46937,8 +47774,11 @@
       <c r="E280">
         <v>65</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -46954,8 +47794,11 @@
       <c r="E281">
         <v>13</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -46971,8 +47814,11 @@
       <c r="E282">
         <v>81</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -46988,8 +47834,11 @@
       <c r="E283">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -47005,8 +47854,11 @@
       <c r="E284">
         <v>46</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -47022,8 +47874,11 @@
       <c r="E285">
         <v>41</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -47039,8 +47894,11 @@
       <c r="E286">
         <v>92</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -47056,8 +47914,11 @@
       <c r="E287">
         <v>24</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -47073,8 +47934,11 @@
       <c r="E288">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -47090,8 +47954,11 @@
       <c r="E289">
         <v>57</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -47107,8 +47974,11 @@
       <c r="E290">
         <v>42</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -47124,8 +47994,11 @@
       <c r="E291">
         <v>24</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -47141,8 +48014,11 @@
       <c r="E292">
         <v>39</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -47158,8 +48034,11 @@
       <c r="E293">
         <v>64</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -47175,8 +48054,11 @@
       <c r="E294">
         <v>28</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -47192,8 +48074,11 @@
       <c r="E295">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -47209,8 +48094,11 @@
       <c r="E296">
         <v>35</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -47226,8 +48114,11 @@
       <c r="E297">
         <v>100</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -47243,8 +48134,11 @@
       <c r="E298">
         <v>91</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -47260,8 +48154,11 @@
       <c r="E299">
         <v>58</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -47277,8 +48174,11 @@
       <c r="E300">
         <v>16</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -47294,8 +48194,11 @@
       <c r="E301">
         <v>33</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -47311,8 +48214,11 @@
       <c r="E302">
         <v>13</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -47328,8 +48234,11 @@
       <c r="E303">
         <v>29</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -47345,8 +48254,11 @@
       <c r="E304">
         <v>34</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -47362,8 +48274,11 @@
       <c r="E305">
         <v>88</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -47379,8 +48294,11 @@
       <c r="E306">
         <v>7</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -47396,8 +48314,11 @@
       <c r="E307">
         <v>6</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -47413,8 +48334,11 @@
       <c r="E308">
         <v>90</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -47430,8 +48354,11 @@
       <c r="E309">
         <v>21</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -47447,8 +48374,11 @@
       <c r="E310">
         <v>81</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -47464,8 +48394,11 @@
       <c r="E311">
         <v>48</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -47481,8 +48414,11 @@
       <c r="E312">
         <v>73</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -47498,8 +48434,11 @@
       <c r="E313">
         <v>50</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -47515,8 +48454,11 @@
       <c r="E314">
         <v>39</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>6</v>
       </c>
@@ -47532,8 +48474,11 @@
       <c r="E315">
         <v>31</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -47549,8 +48494,11 @@
       <c r="E316">
         <v>13</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -47566,8 +48514,11 @@
       <c r="E317">
         <v>85</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -47583,8 +48534,11 @@
       <c r="E318">
         <v>72</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -47600,8 +48554,11 @@
       <c r="E319">
         <v>73</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -47617,8 +48574,11 @@
       <c r="E320">
         <v>45</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>6</v>
       </c>
@@ -47634,8 +48594,11 @@
       <c r="E321">
         <v>82</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -47651,8 +48614,11 @@
       <c r="E322">
         <v>54</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -47668,8 +48634,11 @@
       <c r="E323">
         <v>54</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -47685,8 +48654,11 @@
       <c r="E324">
         <v>51</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>6</v>
       </c>
@@ -47702,8 +48674,11 @@
       <c r="E325">
         <v>59</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -47719,8 +48694,11 @@
       <c r="E326">
         <v>22</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -47736,8 +48714,11 @@
       <c r="E327">
         <v>35</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>6</v>
       </c>
@@ -47753,8 +48734,11 @@
       <c r="E328">
         <v>22</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -47770,8 +48754,11 @@
       <c r="E329">
         <v>12</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>6</v>
       </c>
@@ -47787,8 +48774,11 @@
       <c r="E330">
         <v>29</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -47804,8 +48794,11 @@
       <c r="E331">
         <v>38</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>6</v>
       </c>
@@ -47821,8 +48814,11 @@
       <c r="E332">
         <v>92</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>6</v>
       </c>
@@ -47838,8 +48834,11 @@
       <c r="E333">
         <v>71</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -47855,8 +48854,11 @@
       <c r="E334">
         <v>79</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -47872,8 +48874,11 @@
       <c r="E335">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -47889,8 +48894,11 @@
       <c r="E336">
         <v>14</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>6</v>
       </c>
@@ -47906,8 +48914,11 @@
       <c r="E337">
         <v>17</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>6</v>
       </c>
@@ -47923,8 +48934,11 @@
       <c r="E338">
         <v>63</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>6</v>
       </c>
@@ -47940,8 +48954,11 @@
       <c r="E339">
         <v>69</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>6</v>
       </c>
@@ -47957,8 +48974,11 @@
       <c r="E340">
         <v>67</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>6</v>
       </c>
@@ -47974,8 +48994,11 @@
       <c r="E341">
         <v>41</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>6</v>
       </c>
@@ -47991,8 +49014,11 @@
       <c r="E342">
         <v>67</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>6</v>
       </c>
@@ -48008,8 +49034,11 @@
       <c r="E343">
         <v>99</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -48025,8 +49054,11 @@
       <c r="E344">
         <v>44</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -48042,8 +49074,11 @@
       <c r="E345">
         <v>25</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -48059,8 +49094,11 @@
       <c r="E346">
         <v>91</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>6</v>
       </c>
@@ -48076,8 +49114,11 @@
       <c r="E347">
         <v>24</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -48093,8 +49134,11 @@
       <c r="E348">
         <v>87</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>6</v>
       </c>
@@ -48110,8 +49154,11 @@
       <c r="E349">
         <v>19</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -48127,8 +49174,11 @@
       <c r="E350">
         <v>45</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -48144,8 +49194,11 @@
       <c r="E351">
         <v>19</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -48161,8 +49214,11 @@
       <c r="E352">
         <v>39</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>6</v>
       </c>
@@ -48178,8 +49234,11 @@
       <c r="E353">
         <v>87</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>6</v>
       </c>
@@ -48195,8 +49254,11 @@
       <c r="E354">
         <v>7</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -48212,8 +49274,11 @@
       <c r="E355">
         <v>100</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -48229,8 +49294,11 @@
       <c r="E356">
         <v>70</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>6</v>
       </c>
@@ -48246,8 +49314,11 @@
       <c r="E357">
         <v>73</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -48263,8 +49334,11 @@
       <c r="E358">
         <v>30</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>6</v>
       </c>
@@ -48280,8 +49354,11 @@
       <c r="E359">
         <v>90</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>6</v>
       </c>
@@ -48297,8 +49374,11 @@
       <c r="E360">
         <v>57</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>6</v>
       </c>
@@ -48314,8 +49394,11 @@
       <c r="E361">
         <v>80</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>6</v>
       </c>
@@ -48331,8 +49414,11 @@
       <c r="E362">
         <v>81</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -48348,8 +49434,11 @@
       <c r="E363">
         <v>45</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>6</v>
       </c>
@@ -48365,8 +49454,11 @@
       <c r="E364">
         <v>92</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>6</v>
       </c>
@@ -48382,8 +49474,11 @@
       <c r="E365">
         <v>54</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>6</v>
       </c>
@@ -48399,8 +49494,11 @@
       <c r="E366">
         <v>73</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>6</v>
       </c>
@@ -48416,8 +49514,11 @@
       <c r="E367">
         <v>98</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -48433,8 +49534,11 @@
       <c r="E368">
         <v>21</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>6</v>
       </c>
@@ -48450,8 +49554,11 @@
       <c r="E369">
         <v>24</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>6</v>
       </c>
@@ -48467,8 +49574,11 @@
       <c r="E370">
         <v>21</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>6</v>
       </c>
@@ -48484,8 +49594,11 @@
       <c r="E371">
         <v>77</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>6</v>
       </c>
@@ -48501,8 +49614,11 @@
       <c r="E372">
         <v>63</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>6</v>
       </c>
@@ -48518,8 +49634,11 @@
       <c r="E373">
         <v>15</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>6</v>
       </c>
@@ -48535,8 +49654,11 @@
       <c r="E374">
         <v>52</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>6</v>
       </c>
@@ -48552,8 +49674,11 @@
       <c r="E375">
         <v>18</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -48569,8 +49694,11 @@
       <c r="E376">
         <v>15</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>6</v>
       </c>
@@ -48586,8 +49714,11 @@
       <c r="E377">
         <v>20</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>6</v>
       </c>
@@ -48603,8 +49734,11 @@
       <c r="E378">
         <v>17</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>6</v>
       </c>
@@ -48620,8 +49754,11 @@
       <c r="E379">
         <v>91</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -48637,8 +49774,11 @@
       <c r="E380">
         <v>42</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>6</v>
       </c>
@@ -48654,8 +49794,11 @@
       <c r="E381">
         <v>27</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>6</v>
       </c>
@@ -48671,8 +49814,11 @@
       <c r="E382">
         <v>9</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>6</v>
       </c>
@@ -48688,8 +49834,11 @@
       <c r="E383">
         <v>92</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>6</v>
       </c>
@@ -48705,8 +49854,11 @@
       <c r="E384">
         <v>44</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>6</v>
       </c>
@@ -48722,8 +49874,11 @@
       <c r="E385">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>6</v>
       </c>
@@ -48739,8 +49894,11 @@
       <c r="E386">
         <v>12</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>6</v>
       </c>
@@ -48756,8 +49914,11 @@
       <c r="E387">
         <v>60</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -48773,8 +49934,11 @@
       <c r="E388">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>6</v>
       </c>
@@ -48790,8 +49954,11 @@
       <c r="E389">
         <v>12</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>6</v>
       </c>
@@ -48807,8 +49974,11 @@
       <c r="E390">
         <v>7</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>6</v>
       </c>
@@ -48824,8 +49994,11 @@
       <c r="E391">
         <v>22</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>6</v>
       </c>
@@ -48841,8 +50014,11 @@
       <c r="E392">
         <v>33</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -48858,8 +50034,11 @@
       <c r="E393">
         <v>24</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>6</v>
       </c>
@@ -48875,8 +50054,11 @@
       <c r="E394">
         <v>37</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>6</v>
       </c>
@@ -48892,8 +50074,11 @@
       <c r="E395">
         <v>70</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>6</v>
       </c>
@@ -48909,8 +50094,11 @@
       <c r="E396">
         <v>58</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>6</v>
       </c>
@@ -48926,8 +50114,11 @@
       <c r="E397">
         <v>51</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>6</v>
       </c>
@@ -48943,8 +50134,11 @@
       <c r="E398">
         <v>39</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>6</v>
       </c>
@@ -48960,8 +50154,11 @@
       <c r="E399">
         <v>63</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>6</v>
       </c>
@@ -48977,6 +50174,9 @@
       <c r="E400">
         <v>38</v>
       </c>
+      <c r="F400">
+        <v>2</v>
+      </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
@@ -55797,5 +56997,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b866b217d0e5359/Área de Trabalho/Insper/2o semestre/Ciência dos Dados/Projeto 1/22-2b-cd-p1-grupo_joaoogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503ED185-6242-4B49-B639-BC64EE51E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{503ED185-6242-4B49-B639-BC64EE51E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DED24F-DA19-417E-B907-D6D976790D8C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -42171,8 +42171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
+      <selection activeCell="F625" sqref="F625:F801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53986,7 +53986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>6</v>
       </c>
@@ -54002,8 +54002,11 @@
       <c r="E625">
         <v>98</v>
       </c>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>6</v>
       </c>
@@ -54019,8 +54022,11 @@
       <c r="E626">
         <v>17</v>
       </c>
-    </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>6</v>
       </c>
@@ -54036,8 +54042,11 @@
       <c r="E627">
         <v>93</v>
       </c>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F627">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>6</v>
       </c>
@@ -54053,8 +54062,11 @@
       <c r="E628">
         <v>17</v>
       </c>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>6</v>
       </c>
@@ -54070,8 +54082,11 @@
       <c r="E629">
         <v>7</v>
       </c>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>6</v>
       </c>
@@ -54087,8 +54102,11 @@
       <c r="E630">
         <v>76</v>
       </c>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>6</v>
       </c>
@@ -54104,8 +54122,11 @@
       <c r="E631">
         <v>46</v>
       </c>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>6</v>
       </c>
@@ -54121,8 +54142,11 @@
       <c r="E632">
         <v>87</v>
       </c>
-    </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>6</v>
       </c>
@@ -54138,8 +54162,11 @@
       <c r="E633">
         <v>50</v>
       </c>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>6</v>
       </c>
@@ -54155,8 +54182,11 @@
       <c r="E634">
         <v>10</v>
       </c>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>6</v>
       </c>
@@ -54172,8 +54202,11 @@
       <c r="E635">
         <v>99</v>
       </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>6</v>
       </c>
@@ -54189,8 +54222,11 @@
       <c r="E636">
         <v>2</v>
       </c>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>6</v>
       </c>
@@ -54206,8 +54242,11 @@
       <c r="E637">
         <v>29</v>
       </c>
-    </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>6</v>
       </c>
@@ -54223,8 +54262,11 @@
       <c r="E638">
         <v>100</v>
       </c>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>6</v>
       </c>
@@ -54240,8 +54282,11 @@
       <c r="E639">
         <v>59</v>
       </c>
-    </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>6</v>
       </c>
@@ -54257,8 +54302,11 @@
       <c r="E640">
         <v>60</v>
       </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>6</v>
       </c>
@@ -54274,8 +54322,11 @@
       <c r="E641">
         <v>50</v>
       </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>6</v>
       </c>
@@ -54291,8 +54342,11 @@
       <c r="E642">
         <v>9</v>
       </c>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>6</v>
       </c>
@@ -54308,8 +54362,11 @@
       <c r="E643">
         <v>39</v>
       </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>6</v>
       </c>
@@ -54325,8 +54382,11 @@
       <c r="E644">
         <v>93</v>
       </c>
-    </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>6</v>
       </c>
@@ -54342,8 +54402,11 @@
       <c r="E645">
         <v>85</v>
       </c>
-    </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>6</v>
       </c>
@@ -54359,8 +54422,11 @@
       <c r="E646">
         <v>42</v>
       </c>
-    </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>6</v>
       </c>
@@ -54376,8 +54442,11 @@
       <c r="E647">
         <v>83</v>
       </c>
-    </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>6</v>
       </c>
@@ -54393,8 +54462,11 @@
       <c r="E648">
         <v>99</v>
       </c>
-    </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>6</v>
       </c>
@@ -54410,8 +54482,11 @@
       <c r="E649">
         <v>52</v>
       </c>
-    </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>6</v>
       </c>
@@ -54427,8 +54502,11 @@
       <c r="E650">
         <v>61</v>
       </c>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>6</v>
       </c>
@@ -54444,8 +54522,11 @@
       <c r="E651">
         <v>8</v>
       </c>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>6</v>
       </c>
@@ -54461,8 +54542,11 @@
       <c r="E652">
         <v>65</v>
       </c>
-    </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>6</v>
       </c>
@@ -54478,8 +54562,11 @@
       <c r="E653">
         <v>11</v>
       </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>6</v>
       </c>
@@ -54495,8 +54582,11 @@
       <c r="E654">
         <v>60</v>
       </c>
-    </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>6</v>
       </c>
@@ -54512,8 +54602,11 @@
       <c r="E655">
         <v>23</v>
       </c>
-    </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>6</v>
       </c>
@@ -54529,8 +54622,11 @@
       <c r="E656">
         <v>17</v>
       </c>
-    </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>6</v>
       </c>
@@ -54546,8 +54642,11 @@
       <c r="E657">
         <v>65</v>
       </c>
-    </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>6</v>
       </c>
@@ -54563,8 +54662,11 @@
       <c r="E658">
         <v>14</v>
       </c>
-    </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>6</v>
       </c>
@@ -54580,8 +54682,11 @@
       <c r="E659">
         <v>61</v>
       </c>
-    </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>6</v>
       </c>
@@ -54597,8 +54702,11 @@
       <c r="E660">
         <v>75</v>
       </c>
-    </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>6</v>
       </c>
@@ -54614,8 +54722,11 @@
       <c r="E661">
         <v>19</v>
       </c>
-    </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>6</v>
       </c>
@@ -54631,8 +54742,11 @@
       <c r="E662">
         <v>32</v>
       </c>
-    </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>6</v>
       </c>
@@ -54648,8 +54762,11 @@
       <c r="E663">
         <v>8</v>
       </c>
-    </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>6</v>
       </c>
@@ -54665,8 +54782,11 @@
       <c r="E664">
         <v>91</v>
       </c>
-    </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>6</v>
       </c>
@@ -54682,8 +54802,11 @@
       <c r="E665">
         <v>42</v>
       </c>
-    </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>6</v>
       </c>
@@ -54699,8 +54822,11 @@
       <c r="E666">
         <v>57</v>
       </c>
-    </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>6</v>
       </c>
@@ -54716,8 +54842,11 @@
       <c r="E667">
         <v>24</v>
       </c>
-    </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>6</v>
       </c>
@@ -54733,8 +54862,11 @@
       <c r="E668">
         <v>80</v>
       </c>
-    </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>6</v>
       </c>
@@ -54750,8 +54882,11 @@
       <c r="E669">
         <v>63</v>
       </c>
-    </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>6</v>
       </c>
@@ -54767,8 +54902,11 @@
       <c r="E670">
         <v>8</v>
       </c>
-    </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>6</v>
       </c>
@@ -54784,8 +54922,11 @@
       <c r="E671">
         <v>53</v>
       </c>
-    </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>6</v>
       </c>
@@ -54801,8 +54942,11 @@
       <c r="E672">
         <v>40</v>
       </c>
-    </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>6</v>
       </c>
@@ -54818,8 +54962,11 @@
       <c r="E673">
         <v>95</v>
       </c>
-    </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>6</v>
       </c>
@@ -54835,8 +54982,11 @@
       <c r="E674">
         <v>89</v>
       </c>
-    </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>6</v>
       </c>
@@ -54852,8 +55002,11 @@
       <c r="E675">
         <v>15</v>
       </c>
-    </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>6</v>
       </c>
@@ -54869,8 +55022,11 @@
       <c r="E676">
         <v>95</v>
       </c>
-    </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>6</v>
       </c>
@@ -54886,8 +55042,11 @@
       <c r="E677">
         <v>61</v>
       </c>
-    </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>6</v>
       </c>
@@ -54903,8 +55062,11 @@
       <c r="E678">
         <v>81</v>
       </c>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>6</v>
       </c>
@@ -54920,8 +55082,11 @@
       <c r="E679">
         <v>67</v>
       </c>
-    </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>6</v>
       </c>
@@ -54937,8 +55102,11 @@
       <c r="E680">
         <v>4</v>
       </c>
-    </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>6</v>
       </c>
@@ -54954,8 +55122,11 @@
       <c r="E681">
         <v>4</v>
       </c>
-    </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>6</v>
       </c>
@@ -54971,8 +55142,11 @@
       <c r="E682">
         <v>6</v>
       </c>
-    </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>6</v>
       </c>
@@ -54988,8 +55162,11 @@
       <c r="E683">
         <v>56</v>
       </c>
-    </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>6</v>
       </c>
@@ -55005,8 +55182,11 @@
       <c r="E684">
         <v>7</v>
       </c>
-    </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>6</v>
       </c>
@@ -55022,8 +55202,11 @@
       <c r="E685">
         <v>55</v>
       </c>
-    </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>6</v>
       </c>
@@ -55039,8 +55222,11 @@
       <c r="E686">
         <v>24</v>
       </c>
-    </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>6</v>
       </c>
@@ -55056,8 +55242,11 @@
       <c r="E687">
         <v>95</v>
       </c>
-    </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F687">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>6</v>
       </c>
@@ -55073,8 +55262,11 @@
       <c r="E688">
         <v>60</v>
       </c>
-    </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>6</v>
       </c>
@@ -55090,8 +55282,11 @@
       <c r="E689">
         <v>49</v>
       </c>
-    </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>6</v>
       </c>
@@ -55107,8 +55302,11 @@
       <c r="E690">
         <v>54</v>
       </c>
-    </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>6</v>
       </c>
@@ -55124,8 +55322,11 @@
       <c r="E691">
         <v>63</v>
       </c>
-    </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>6</v>
       </c>
@@ -55141,8 +55342,11 @@
       <c r="E692">
         <v>66</v>
       </c>
-    </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>6</v>
       </c>
@@ -55158,8 +55362,11 @@
       <c r="E693">
         <v>46</v>
       </c>
-    </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>6</v>
       </c>
@@ -55175,8 +55382,11 @@
       <c r="E694">
         <v>3</v>
       </c>
-    </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>6</v>
       </c>
@@ -55192,8 +55402,11 @@
       <c r="E695">
         <v>6</v>
       </c>
-    </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>6</v>
       </c>
@@ -55209,8 +55422,11 @@
       <c r="E696">
         <v>23</v>
       </c>
-    </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>6</v>
       </c>
@@ -55226,8 +55442,11 @@
       <c r="E697">
         <v>80</v>
       </c>
-    </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>6</v>
       </c>
@@ -55243,8 +55462,11 @@
       <c r="E698">
         <v>12</v>
       </c>
-    </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>6</v>
       </c>
@@ -55260,8 +55482,11 @@
       <c r="E699">
         <v>34</v>
       </c>
-    </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>6</v>
       </c>
@@ -55277,8 +55502,11 @@
       <c r="E700">
         <v>45</v>
       </c>
-    </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>6</v>
       </c>
@@ -55294,8 +55522,11 @@
       <c r="E701">
         <v>43</v>
       </c>
-    </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>6</v>
       </c>
@@ -55311,8 +55542,11 @@
       <c r="E702">
         <v>34</v>
       </c>
-    </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F702">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>6</v>
       </c>
@@ -55328,8 +55562,11 @@
       <c r="E703">
         <v>49</v>
       </c>
-    </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>6</v>
       </c>
@@ -55345,8 +55582,11 @@
       <c r="E704">
         <v>6</v>
       </c>
-    </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>6</v>
       </c>
@@ -55362,8 +55602,11 @@
       <c r="E705">
         <v>66</v>
       </c>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>6</v>
       </c>
@@ -55379,8 +55622,11 @@
       <c r="E706">
         <v>30</v>
       </c>
-    </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>6</v>
       </c>
@@ -55396,8 +55642,11 @@
       <c r="E707">
         <v>63</v>
       </c>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>6</v>
       </c>
@@ -55413,8 +55662,11 @@
       <c r="E708">
         <v>22</v>
       </c>
-    </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>6</v>
       </c>
@@ -55430,8 +55682,11 @@
       <c r="E709">
         <v>73</v>
       </c>
-    </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>6</v>
       </c>
@@ -55447,8 +55702,11 @@
       <c r="E710">
         <v>80</v>
       </c>
-    </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>6</v>
       </c>
@@ -55464,8 +55722,11 @@
       <c r="E711">
         <v>64</v>
       </c>
-    </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>6</v>
       </c>
@@ -55481,8 +55742,11 @@
       <c r="E712">
         <v>89</v>
       </c>
-    </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>6</v>
       </c>
@@ -55498,8 +55762,11 @@
       <c r="E713">
         <v>78</v>
       </c>
-    </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>6</v>
       </c>
@@ -55515,8 +55782,11 @@
       <c r="E714">
         <v>31</v>
       </c>
-    </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>6</v>
       </c>
@@ -55532,8 +55802,11 @@
       <c r="E715">
         <v>17</v>
       </c>
-    </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>6</v>
       </c>
@@ -55549,8 +55822,11 @@
       <c r="E716">
         <v>76</v>
       </c>
-    </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>6</v>
       </c>
@@ -55566,8 +55842,11 @@
       <c r="E717">
         <v>60</v>
       </c>
-    </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>6</v>
       </c>
@@ -55583,8 +55862,11 @@
       <c r="E718">
         <v>97</v>
       </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>6</v>
       </c>
@@ -55600,8 +55882,11 @@
       <c r="E719">
         <v>61</v>
       </c>
-    </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>6</v>
       </c>
@@ -55617,8 +55902,11 @@
       <c r="E720">
         <v>64</v>
       </c>
-    </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>6</v>
       </c>
@@ -55634,8 +55922,11 @@
       <c r="E721">
         <v>50</v>
       </c>
-    </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>6</v>
       </c>
@@ -55651,8 +55942,11 @@
       <c r="E722">
         <v>34</v>
       </c>
-    </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>6</v>
       </c>
@@ -55668,8 +55962,11 @@
       <c r="E723">
         <v>63</v>
       </c>
-    </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>6</v>
       </c>
@@ -55685,8 +55982,11 @@
       <c r="E724">
         <v>3</v>
       </c>
-    </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>6</v>
       </c>
@@ -55702,8 +56002,11 @@
       <c r="E725">
         <v>84</v>
       </c>
-    </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>6</v>
       </c>
@@ -55719,8 +56022,11 @@
       <c r="E726">
         <v>38</v>
       </c>
-    </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>6</v>
       </c>
@@ -55736,8 +56042,11 @@
       <c r="E727">
         <v>54</v>
       </c>
-    </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>6</v>
       </c>
@@ -55753,8 +56062,11 @@
       <c r="E728">
         <v>69</v>
       </c>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>6</v>
       </c>
@@ -55770,8 +56082,11 @@
       <c r="E729">
         <v>62</v>
       </c>
-    </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>6</v>
       </c>
@@ -55787,8 +56102,11 @@
       <c r="E730">
         <v>38</v>
       </c>
-    </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F730">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>6</v>
       </c>
@@ -55804,8 +56122,11 @@
       <c r="E731">
         <v>27</v>
       </c>
-    </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>6</v>
       </c>
@@ -55821,8 +56142,11 @@
       <c r="E732">
         <v>88</v>
       </c>
-    </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>6</v>
       </c>
@@ -55838,8 +56162,11 @@
       <c r="E733">
         <v>40</v>
       </c>
-    </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>6</v>
       </c>
@@ -55855,8 +56182,11 @@
       <c r="E734">
         <v>35</v>
       </c>
-    </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>6</v>
       </c>
@@ -55872,8 +56202,11 @@
       <c r="E735">
         <v>79</v>
       </c>
-    </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>6</v>
       </c>
@@ -55889,8 +56222,11 @@
       <c r="E736">
         <v>66</v>
       </c>
-    </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>6</v>
       </c>
@@ -55906,8 +56242,11 @@
       <c r="E737">
         <v>85</v>
       </c>
-    </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>6</v>
       </c>
@@ -55923,8 +56262,11 @@
       <c r="E738">
         <v>53</v>
       </c>
-    </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F738">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>6</v>
       </c>
@@ -55940,8 +56282,11 @@
       <c r="E739">
         <v>4</v>
       </c>
-    </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>6</v>
       </c>
@@ -55957,8 +56302,11 @@
       <c r="E740">
         <v>79</v>
       </c>
-    </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>6</v>
       </c>
@@ -55974,8 +56322,11 @@
       <c r="E741">
         <v>50</v>
       </c>
-    </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>6</v>
       </c>
@@ -55991,8 +56342,11 @@
       <c r="E742">
         <v>52</v>
       </c>
-    </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>6</v>
       </c>
@@ -56008,8 +56362,11 @@
       <c r="E743">
         <v>64</v>
       </c>
-    </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F743">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>6</v>
       </c>
@@ -56025,8 +56382,11 @@
       <c r="E744">
         <v>59</v>
       </c>
-    </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>6</v>
       </c>
@@ -56042,8 +56402,11 @@
       <c r="E745">
         <v>57</v>
       </c>
-    </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>6</v>
       </c>
@@ -56059,8 +56422,11 @@
       <c r="E746">
         <v>84</v>
       </c>
-    </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>6</v>
       </c>
@@ -56076,8 +56442,11 @@
       <c r="E747">
         <v>50</v>
       </c>
-    </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>6</v>
       </c>
@@ -56093,8 +56462,11 @@
       <c r="E748">
         <v>39</v>
       </c>
-    </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>6</v>
       </c>
@@ -56110,8 +56482,11 @@
       <c r="E749">
         <v>47</v>
       </c>
-    </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>6</v>
       </c>
@@ -56127,8 +56502,11 @@
       <c r="E750">
         <v>64</v>
       </c>
-    </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>6</v>
       </c>
@@ -56144,8 +56522,11 @@
       <c r="E751">
         <v>41</v>
       </c>
-    </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>6</v>
       </c>
@@ -56161,8 +56542,11 @@
       <c r="E752">
         <v>86</v>
       </c>
-    </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>6</v>
       </c>
@@ -56178,8 +56562,11 @@
       <c r="E753">
         <v>5</v>
       </c>
-    </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F753">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>6</v>
       </c>
@@ -56195,8 +56582,11 @@
       <c r="E754">
         <v>13</v>
       </c>
-    </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>6</v>
       </c>
@@ -56212,8 +56602,11 @@
       <c r="E755">
         <v>84</v>
       </c>
-    </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>6</v>
       </c>
@@ -56229,8 +56622,11 @@
       <c r="E756">
         <v>18</v>
       </c>
-    </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F756">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>6</v>
       </c>
@@ -56246,8 +56642,11 @@
       <c r="E757">
         <v>91</v>
       </c>
-    </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>6</v>
       </c>
@@ -56263,8 +56662,11 @@
       <c r="E758">
         <v>42</v>
       </c>
-    </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>6</v>
       </c>
@@ -56280,8 +56682,11 @@
       <c r="E759">
         <v>41</v>
       </c>
-    </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>6</v>
       </c>
@@ -56297,8 +56702,11 @@
       <c r="E760">
         <v>85</v>
       </c>
-    </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F760">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>6</v>
       </c>
@@ -56314,8 +56722,11 @@
       <c r="E761">
         <v>25</v>
       </c>
-    </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>6</v>
       </c>
@@ -56331,8 +56742,11 @@
       <c r="E762">
         <v>3</v>
       </c>
-    </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F762">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>6</v>
       </c>
@@ -56348,8 +56762,11 @@
       <c r="E763">
         <v>66</v>
       </c>
-    </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>6</v>
       </c>
@@ -56365,8 +56782,11 @@
       <c r="E764">
         <v>63</v>
       </c>
-    </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>6</v>
       </c>
@@ -56382,8 +56802,11 @@
       <c r="E765">
         <v>88</v>
       </c>
-    </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>6</v>
       </c>
@@ -56399,8 +56822,11 @@
       <c r="E766">
         <v>6</v>
       </c>
-    </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>6</v>
       </c>
@@ -56416,8 +56842,11 @@
       <c r="E767">
         <v>32</v>
       </c>
-    </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>6</v>
       </c>
@@ -56433,8 +56862,11 @@
       <c r="E768">
         <v>5</v>
       </c>
-    </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>6</v>
       </c>
@@ -56450,8 +56882,11 @@
       <c r="E769">
         <v>45</v>
       </c>
-    </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>6</v>
       </c>
@@ -56467,8 +56902,11 @@
       <c r="E770">
         <v>59</v>
       </c>
-    </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>6</v>
       </c>
@@ -56484,8 +56922,11 @@
       <c r="E771">
         <v>1</v>
       </c>
-    </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>6</v>
       </c>
@@ -56501,8 +56942,11 @@
       <c r="E772">
         <v>64</v>
       </c>
-    </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>6</v>
       </c>
@@ -56518,8 +56962,11 @@
       <c r="E773">
         <v>88</v>
       </c>
-    </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F773">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>6</v>
       </c>
@@ -56535,8 +56982,11 @@
       <c r="E774">
         <v>37</v>
       </c>
-    </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F774">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>6</v>
       </c>
@@ -56552,8 +57002,11 @@
       <c r="E775">
         <v>63</v>
       </c>
-    </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>6</v>
       </c>
@@ -56569,8 +57022,11 @@
       <c r="E776">
         <v>98</v>
       </c>
-    </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>6</v>
       </c>
@@ -56586,8 +57042,11 @@
       <c r="E777">
         <v>12</v>
       </c>
-    </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>6</v>
       </c>
@@ -56603,8 +57062,11 @@
       <c r="E778">
         <v>4</v>
       </c>
-    </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F778">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>6</v>
       </c>
@@ -56620,8 +57082,11 @@
       <c r="E779">
         <v>59</v>
       </c>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>6</v>
       </c>
@@ -56637,8 +57102,11 @@
       <c r="E780">
         <v>81</v>
       </c>
-    </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>6</v>
       </c>
@@ -56654,8 +57122,11 @@
       <c r="E781">
         <v>21</v>
       </c>
-    </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F781">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>6</v>
       </c>
@@ -56671,8 +57142,11 @@
       <c r="E782">
         <v>94</v>
       </c>
-    </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>6</v>
       </c>
@@ -56688,8 +57162,11 @@
       <c r="E783">
         <v>61</v>
       </c>
-    </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F783">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>6</v>
       </c>
@@ -56705,8 +57182,11 @@
       <c r="E784">
         <v>48</v>
       </c>
-    </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>6</v>
       </c>
@@ -56722,8 +57202,11 @@
       <c r="E785">
         <v>10</v>
       </c>
-    </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>6</v>
       </c>
@@ -56739,8 +57222,11 @@
       <c r="E786">
         <v>40</v>
       </c>
-    </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>6</v>
       </c>
@@ -56756,8 +57242,11 @@
       <c r="E787">
         <v>73</v>
       </c>
-    </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F787">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>6</v>
       </c>
@@ -56773,8 +57262,11 @@
       <c r="E788">
         <v>54</v>
       </c>
-    </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>6</v>
       </c>
@@ -56790,8 +57282,11 @@
       <c r="E789">
         <v>1</v>
       </c>
-    </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>6</v>
       </c>
@@ -56807,8 +57302,11 @@
       <c r="E790">
         <v>51</v>
       </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>6</v>
       </c>
@@ -56824,8 +57322,11 @@
       <c r="E791">
         <v>1</v>
       </c>
-    </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>6</v>
       </c>
@@ -56841,8 +57342,11 @@
       <c r="E792">
         <v>38</v>
       </c>
-    </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>6</v>
       </c>
@@ -56858,8 +57362,11 @@
       <c r="E793">
         <v>70</v>
       </c>
-    </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>6</v>
       </c>
@@ -56875,8 +57382,11 @@
       <c r="E794">
         <v>75</v>
       </c>
-    </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>6</v>
       </c>
@@ -56892,8 +57402,11 @@
       <c r="E795">
         <v>22</v>
       </c>
-    </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>6</v>
       </c>
@@ -56909,8 +57422,11 @@
       <c r="E796">
         <v>83</v>
       </c>
-    </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>6</v>
       </c>
@@ -56926,8 +57442,11 @@
       <c r="E797">
         <v>79</v>
       </c>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>6</v>
       </c>
@@ -56943,8 +57462,11 @@
       <c r="E798">
         <v>61</v>
       </c>
-    </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>6</v>
       </c>
@@ -56960,8 +57482,11 @@
       <c r="E799">
         <v>29</v>
       </c>
-    </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>6</v>
       </c>
@@ -56977,8 +57502,11 @@
       <c r="E800">
         <v>41</v>
       </c>
-    </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>6</v>
       </c>
@@ -56993,6 +57521,9 @@
       </c>
       <c r="E801">
         <v>73</v>
+      </c>
+      <c r="F801">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b866b217d0e5359/Área de Trabalho/Insper/2o semestre/Ciência dos Dados/Projeto 1/22-2b-cd-p1-grupo_joaoogp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{503ED185-6242-4B49-B639-BC64EE51E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DED24F-DA19-417E-B907-D6D976790D8C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72378759-B21A-47BB-A5C8-3482E4BBCCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8015" uniqueCount="5893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8016" uniqueCount="5894">
   <si>
     <t>Categoria</t>
   </si>
@@ -17700,6 +17700,9 @@
   </si>
   <si>
     <t>neutra</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -42171,8 +42174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
-      <selection activeCell="F625" sqref="F625:F801"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="F582" sqref="F582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50178,7 +50181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>6</v>
       </c>
@@ -50194,8 +50197,11 @@
       <c r="E401">
         <v>25</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>6</v>
       </c>
@@ -50211,8 +50217,14 @@
       <c r="E402">
         <v>7</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F402">
+        <v>1</v>
+      </c>
+      <c r="G402" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>6</v>
       </c>
@@ -50228,8 +50240,11 @@
       <c r="E403">
         <v>33</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>6</v>
       </c>
@@ -50245,8 +50260,11 @@
       <c r="E404">
         <v>36</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>6</v>
       </c>
@@ -50262,8 +50280,11 @@
       <c r="E405">
         <v>50</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>6</v>
       </c>
@@ -50279,8 +50300,11 @@
       <c r="E406">
         <v>18</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>6</v>
       </c>
@@ -50296,8 +50320,11 @@
       <c r="E407">
         <v>5</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>6</v>
       </c>
@@ -50313,8 +50340,11 @@
       <c r="E408">
         <v>18</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>6</v>
       </c>
@@ -50330,8 +50360,11 @@
       <c r="E409">
         <v>28</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>6</v>
       </c>
@@ -50347,8 +50380,11 @@
       <c r="E410">
         <v>51</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>6</v>
       </c>
@@ -50364,8 +50400,11 @@
       <c r="E411">
         <v>15</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -50381,8 +50420,11 @@
       <c r="E412">
         <v>84</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -50398,8 +50440,11 @@
       <c r="E413">
         <v>71</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>6</v>
       </c>
@@ -50415,8 +50460,11 @@
       <c r="E414">
         <v>56</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>6</v>
       </c>
@@ -50432,8 +50480,11 @@
       <c r="E415">
         <v>34</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -50449,8 +50500,11 @@
       <c r="E416">
         <v>98</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>6</v>
       </c>
@@ -50466,8 +50520,11 @@
       <c r="E417">
         <v>95</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>6</v>
       </c>
@@ -50483,8 +50540,11 @@
       <c r="E418">
         <v>98</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>6</v>
       </c>
@@ -50500,8 +50560,11 @@
       <c r="E419">
         <v>30</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>6</v>
       </c>
@@ -50517,8 +50580,11 @@
       <c r="E420">
         <v>62</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>6</v>
       </c>
@@ -50534,8 +50600,11 @@
       <c r="E421">
         <v>27</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>6</v>
       </c>
@@ -50551,8 +50620,11 @@
       <c r="E422">
         <v>43</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -50568,8 +50640,11 @@
       <c r="E423">
         <v>75</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>6</v>
       </c>
@@ -50585,8 +50660,11 @@
       <c r="E424">
         <v>58</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -50602,8 +50680,11 @@
       <c r="E425">
         <v>81</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>6</v>
       </c>
@@ -50619,8 +50700,11 @@
       <c r="E426">
         <v>60</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>6</v>
       </c>
@@ -50636,8 +50720,11 @@
       <c r="E427">
         <v>35</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>6</v>
       </c>
@@ -50653,8 +50740,11 @@
       <c r="E428">
         <v>80</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>6</v>
       </c>
@@ -50670,8 +50760,11 @@
       <c r="E429">
         <v>26</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>6</v>
       </c>
@@ -50687,8 +50780,11 @@
       <c r="E430">
         <v>32</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>6</v>
       </c>
@@ -50704,8 +50800,11 @@
       <c r="E431">
         <v>82</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>6</v>
       </c>
@@ -50721,8 +50820,11 @@
       <c r="E432">
         <v>18</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>6</v>
       </c>
@@ -50738,8 +50840,11 @@
       <c r="E433">
         <v>29</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>6</v>
       </c>
@@ -50755,8 +50860,11 @@
       <c r="E434">
         <v>95</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -50772,8 +50880,11 @@
       <c r="E435">
         <v>3</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>6</v>
       </c>
@@ -50789,8 +50900,11 @@
       <c r="E436">
         <v>25</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>6</v>
       </c>
@@ -50806,8 +50920,11 @@
       <c r="E437">
         <v>12</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -50823,8 +50940,11 @@
       <c r="E438">
         <v>12</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>6</v>
       </c>
@@ -50840,8 +50960,11 @@
       <c r="E439">
         <v>90</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -50857,8 +50980,11 @@
       <c r="E440">
         <v>52</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>6</v>
       </c>
@@ -50874,8 +51000,11 @@
       <c r="E441">
         <v>55</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>6</v>
       </c>
@@ -50891,8 +51020,11 @@
       <c r="E442">
         <v>80</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>6</v>
       </c>
@@ -50908,8 +51040,11 @@
       <c r="E443">
         <v>60</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>6</v>
       </c>
@@ -50925,8 +51060,11 @@
       <c r="E444">
         <v>74</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -50942,8 +51080,11 @@
       <c r="E445">
         <v>72</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>6</v>
       </c>
@@ -50959,8 +51100,11 @@
       <c r="E446">
         <v>7</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>6</v>
       </c>
@@ -50976,8 +51120,11 @@
       <c r="E447">
         <v>61</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>6</v>
       </c>
@@ -50993,8 +51140,11 @@
       <c r="E448">
         <v>17</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>6</v>
       </c>
@@ -51010,8 +51160,11 @@
       <c r="E449">
         <v>41</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>6</v>
       </c>
@@ -51027,8 +51180,11 @@
       <c r="E450">
         <v>78</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>6</v>
       </c>
@@ -51044,8 +51200,11 @@
       <c r="E451">
         <v>30</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>6</v>
       </c>
@@ -51061,8 +51220,11 @@
       <c r="E452">
         <v>79</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>6</v>
       </c>
@@ -51078,8 +51240,11 @@
       <c r="E453">
         <v>23</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>6</v>
       </c>
@@ -51095,8 +51260,11 @@
       <c r="E454">
         <v>100</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>6</v>
       </c>
@@ -51112,8 +51280,11 @@
       <c r="E455">
         <v>26</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>6</v>
       </c>
@@ -51129,8 +51300,11 @@
       <c r="E456">
         <v>26</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -51146,8 +51320,11 @@
       <c r="E457">
         <v>79</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>6</v>
       </c>
@@ -51163,8 +51340,11 @@
       <c r="E458">
         <v>62</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>6</v>
       </c>
@@ -51180,8 +51360,11 @@
       <c r="E459">
         <v>23</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>6</v>
       </c>
@@ -51197,8 +51380,11 @@
       <c r="E460">
         <v>78</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>6</v>
       </c>
@@ -51214,8 +51400,11 @@
       <c r="E461">
         <v>83</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>6</v>
       </c>
@@ -51231,8 +51420,11 @@
       <c r="E462">
         <v>48</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>6</v>
       </c>
@@ -51248,8 +51440,11 @@
       <c r="E463">
         <v>20</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>6</v>
       </c>
@@ -51265,8 +51460,11 @@
       <c r="E464">
         <v>25</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>6</v>
       </c>
@@ -51282,8 +51480,11 @@
       <c r="E465">
         <v>29</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>6</v>
       </c>
@@ -51299,8 +51500,11 @@
       <c r="E466">
         <v>76</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>6</v>
       </c>
@@ -51316,8 +51520,11 @@
       <c r="E467">
         <v>58</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>6</v>
       </c>
@@ -51333,8 +51540,11 @@
       <c r="E468">
         <v>42</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>6</v>
       </c>
@@ -51350,8 +51560,11 @@
       <c r="E469">
         <v>88</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>6</v>
       </c>
@@ -51367,8 +51580,11 @@
       <c r="E470">
         <v>79</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -51384,8 +51600,11 @@
       <c r="E471">
         <v>21</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>6</v>
       </c>
@@ -51401,8 +51620,11 @@
       <c r="E472">
         <v>42</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>6</v>
       </c>
@@ -51418,8 +51640,11 @@
       <c r="E473">
         <v>80</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>6</v>
       </c>
@@ -51435,8 +51660,11 @@
       <c r="E474">
         <v>47</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>6</v>
       </c>
@@ -51452,8 +51680,11 @@
       <c r="E475">
         <v>74</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>6</v>
       </c>
@@ -51469,8 +51700,11 @@
       <c r="E476">
         <v>97</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>6</v>
       </c>
@@ -51486,8 +51720,11 @@
       <c r="E477">
         <v>16</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>6</v>
       </c>
@@ -51503,8 +51740,11 @@
       <c r="E478">
         <v>28</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>6</v>
       </c>
@@ -51520,8 +51760,11 @@
       <c r="E479">
         <v>91</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>6</v>
       </c>
@@ -51537,8 +51780,11 @@
       <c r="E480">
         <v>6</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>6</v>
       </c>
@@ -51554,8 +51800,11 @@
       <c r="E481">
         <v>15</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>6</v>
       </c>
@@ -51571,8 +51820,11 @@
       <c r="E482">
         <v>68</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>6</v>
       </c>
@@ -51588,8 +51840,11 @@
       <c r="E483">
         <v>52</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>6</v>
       </c>
@@ -51605,8 +51860,11 @@
       <c r="E484">
         <v>41</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>6</v>
       </c>
@@ -51622,8 +51880,11 @@
       <c r="E485">
         <v>83</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>6</v>
       </c>
@@ -51639,8 +51900,11 @@
       <c r="E486">
         <v>12</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -51656,8 +51920,11 @@
       <c r="E487">
         <v>32</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>6</v>
       </c>
@@ -51673,8 +51940,11 @@
       <c r="E488">
         <v>10</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>6</v>
       </c>
@@ -51690,8 +51960,11 @@
       <c r="E489">
         <v>96</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -51707,8 +51980,11 @@
       <c r="E490">
         <v>91</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>6</v>
       </c>
@@ -51724,8 +52000,11 @@
       <c r="E491">
         <v>21</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>6</v>
       </c>
@@ -51741,8 +52020,11 @@
       <c r="E492">
         <v>73</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>6</v>
       </c>
@@ -51758,8 +52040,11 @@
       <c r="E493">
         <v>44</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>6</v>
       </c>
@@ -51775,8 +52060,11 @@
       <c r="E494">
         <v>3</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>6</v>
       </c>
@@ -51792,8 +52080,11 @@
       <c r="E495">
         <v>73</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>6</v>
       </c>
@@ -51809,8 +52100,11 @@
       <c r="E496">
         <v>94</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>6</v>
       </c>
@@ -51826,8 +52120,11 @@
       <c r="E497">
         <v>10</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>6</v>
       </c>
@@ -51843,8 +52140,11 @@
       <c r="E498">
         <v>64</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>6</v>
       </c>
@@ -51860,8 +52160,11 @@
       <c r="E499">
         <v>93</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>6</v>
       </c>
@@ -51877,8 +52180,11 @@
       <c r="E500">
         <v>68</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>6</v>
       </c>
@@ -51894,8 +52200,11 @@
       <c r="E501">
         <v>94</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>6</v>
       </c>
@@ -51911,8 +52220,11 @@
       <c r="E502">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>6</v>
       </c>
@@ -51928,8 +52240,11 @@
       <c r="E503">
         <v>97</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>6</v>
       </c>
@@ -51945,8 +52260,11 @@
       <c r="E504">
         <v>22</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>6</v>
       </c>
@@ -51962,8 +52280,11 @@
       <c r="E505">
         <v>10</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -51979,8 +52300,11 @@
       <c r="E506">
         <v>99</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>6</v>
       </c>
@@ -51996,8 +52320,11 @@
       <c r="E507">
         <v>55</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -52013,8 +52340,11 @@
       <c r="E508">
         <v>2</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>6</v>
       </c>
@@ -52030,8 +52360,11 @@
       <c r="E509">
         <v>72</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>6</v>
       </c>
@@ -52047,8 +52380,11 @@
       <c r="E510">
         <v>80</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>6</v>
       </c>
@@ -52064,8 +52400,11 @@
       <c r="E511">
         <v>34</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>6</v>
       </c>
@@ -52081,8 +52420,11 @@
       <c r="E512">
         <v>66</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>6</v>
       </c>
@@ -52098,8 +52440,11 @@
       <c r="E513">
         <v>85</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>6</v>
       </c>
@@ -52115,8 +52460,11 @@
       <c r="E514">
         <v>28</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>6</v>
       </c>
@@ -52132,8 +52480,11 @@
       <c r="E515">
         <v>88</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>6</v>
       </c>
@@ -52149,8 +52500,11 @@
       <c r="E516">
         <v>32</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>6</v>
       </c>
@@ -52166,8 +52520,11 @@
       <c r="E517">
         <v>61</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>6</v>
       </c>
@@ -52183,8 +52540,11 @@
       <c r="E518">
         <v>87</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>6</v>
       </c>
@@ -52200,8 +52560,11 @@
       <c r="E519">
         <v>58</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>6</v>
       </c>
@@ -52217,8 +52580,11 @@
       <c r="E520">
         <v>72</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>6</v>
       </c>
@@ -52234,8 +52600,11 @@
       <c r="E521">
         <v>55</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>6</v>
       </c>
@@ -52251,8 +52620,11 @@
       <c r="E522">
         <v>68</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>6</v>
       </c>
@@ -52268,8 +52640,11 @@
       <c r="E523">
         <v>3</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>6</v>
       </c>
@@ -52285,8 +52660,11 @@
       <c r="E524">
         <v>70</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>6</v>
       </c>
@@ -52302,8 +52680,11 @@
       <c r="E525">
         <v>33</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -52319,8 +52700,11 @@
       <c r="E526">
         <v>37</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>6</v>
       </c>
@@ -52336,8 +52720,11 @@
       <c r="E527">
         <v>93</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>6</v>
       </c>
@@ -52353,8 +52740,11 @@
       <c r="E528">
         <v>21</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>6</v>
       </c>
@@ -52370,8 +52760,11 @@
       <c r="E529">
         <v>5</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>6</v>
       </c>
@@ -52387,8 +52780,11 @@
       <c r="E530">
         <v>69</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>6</v>
       </c>
@@ -52404,8 +52800,11 @@
       <c r="E531">
         <v>25</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>6</v>
       </c>
@@ -52421,8 +52820,11 @@
       <c r="E532">
         <v>41</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>6</v>
       </c>
@@ -52438,8 +52840,11 @@
       <c r="E533">
         <v>77</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>6</v>
       </c>
@@ -52455,8 +52860,11 @@
       <c r="E534">
         <v>80</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>6</v>
       </c>
@@ -52472,8 +52880,11 @@
       <c r="E535">
         <v>60</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>6</v>
       </c>
@@ -52489,8 +52900,11 @@
       <c r="E536">
         <v>67</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>6</v>
       </c>
@@ -52506,8 +52920,11 @@
       <c r="E537">
         <v>10</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>6</v>
       </c>
@@ -52523,8 +52940,11 @@
       <c r="E538">
         <v>57</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>6</v>
       </c>
@@ -52540,8 +52960,11 @@
       <c r="E539">
         <v>48</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>6</v>
       </c>
@@ -52557,8 +52980,11 @@
       <c r="E540">
         <v>5</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>6</v>
       </c>
@@ -52574,8 +53000,11 @@
       <c r="E541">
         <v>40</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>6</v>
       </c>
@@ -52591,8 +53020,11 @@
       <c r="E542">
         <v>43</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>6</v>
       </c>
@@ -52608,8 +53040,11 @@
       <c r="E543">
         <v>70</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>6</v>
       </c>
@@ -52625,8 +53060,11 @@
       <c r="E544">
         <v>8</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>6</v>
       </c>
@@ -52642,8 +53080,11 @@
       <c r="E545">
         <v>91</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -52659,8 +53100,11 @@
       <c r="E546">
         <v>73</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>6</v>
       </c>
@@ -52676,8 +53120,11 @@
       <c r="E547">
         <v>58</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>6</v>
       </c>
@@ -52693,8 +53140,11 @@
       <c r="E548">
         <v>16</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>6</v>
       </c>
@@ -52710,8 +53160,11 @@
       <c r="E549">
         <v>43</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>6</v>
       </c>
@@ -52727,8 +53180,11 @@
       <c r="E550">
         <v>75</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>6</v>
       </c>
@@ -52744,8 +53200,11 @@
       <c r="E551">
         <v>72</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>6</v>
       </c>
@@ -52761,8 +53220,11 @@
       <c r="E552">
         <v>20</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>6</v>
       </c>
@@ -52778,8 +53240,11 @@
       <c r="E553">
         <v>21</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>6</v>
       </c>
@@ -52795,8 +53260,11 @@
       <c r="E554">
         <v>19</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>6</v>
       </c>
@@ -52812,8 +53280,11 @@
       <c r="E555">
         <v>83</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>6</v>
       </c>
@@ -52829,8 +53300,11 @@
       <c r="E556">
         <v>93</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>6</v>
       </c>
@@ -52846,8 +53320,11 @@
       <c r="E557">
         <v>35</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>6</v>
       </c>
@@ -52863,8 +53340,11 @@
       <c r="E558">
         <v>74</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>6</v>
       </c>
@@ -52880,8 +53360,11 @@
       <c r="E559">
         <v>43</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -52897,8 +53380,11 @@
       <c r="E560">
         <v>55</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>6</v>
       </c>
@@ -52914,8 +53400,11 @@
       <c r="E561">
         <v>12</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>6</v>
       </c>
@@ -52931,8 +53420,11 @@
       <c r="E562">
         <v>53</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>6</v>
       </c>
@@ -52948,8 +53440,11 @@
       <c r="E563">
         <v>96</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>6</v>
       </c>
@@ -52965,8 +53460,11 @@
       <c r="E564">
         <v>28</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>6</v>
       </c>
@@ -52982,8 +53480,11 @@
       <c r="E565">
         <v>96</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>6</v>
       </c>
@@ -52999,8 +53500,11 @@
       <c r="E566">
         <v>68</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>6</v>
       </c>
@@ -53016,8 +53520,11 @@
       <c r="E567">
         <v>38</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -53033,8 +53540,11 @@
       <c r="E568">
         <v>68</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>6</v>
       </c>
@@ -53050,8 +53560,11 @@
       <c r="E569">
         <v>54</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>6</v>
       </c>
@@ -53067,8 +53580,11 @@
       <c r="E570">
         <v>26</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>6</v>
       </c>
@@ -53084,8 +53600,11 @@
       <c r="E571">
         <v>47</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -53101,8 +53620,11 @@
       <c r="E572">
         <v>14</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>6</v>
       </c>
@@ -53118,8 +53640,11 @@
       <c r="E573">
         <v>66</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>6</v>
       </c>
@@ -53135,8 +53660,11 @@
       <c r="E574">
         <v>47</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>6</v>
       </c>
@@ -53152,8 +53680,11 @@
       <c r="E575">
         <v>59</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>6</v>
       </c>
@@ -53169,8 +53700,11 @@
       <c r="E576">
         <v>7</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>6</v>
       </c>
@@ -53186,8 +53720,11 @@
       <c r="E577">
         <v>45</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>6</v>
       </c>
@@ -53203,8 +53740,11 @@
       <c r="E578">
         <v>61</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -53220,8 +53760,11 @@
       <c r="E579">
         <v>54</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>6</v>
       </c>
@@ -53237,8 +53780,11 @@
       <c r="E580">
         <v>13</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>6</v>
       </c>
@@ -53254,8 +53800,11 @@
       <c r="E581">
         <v>89</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>6</v>
       </c>
@@ -53271,8 +53820,11 @@
       <c r="E582">
         <v>77</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>6</v>
       </c>
@@ -53289,7 +53841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>6</v>
       </c>
@@ -53306,7 +53858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>6</v>
       </c>
@@ -53323,7 +53875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>6</v>
       </c>
@@ -53340,7 +53892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>6</v>
       </c>
@@ -53357,7 +53909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>6</v>
       </c>
@@ -53374,7 +53926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>6</v>
       </c>
@@ -53391,7 +53943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>6</v>
       </c>
@@ -53408,7 +53960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>6</v>
       </c>
@@ -53425,7 +53977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>6</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72378759-B21A-47BB-A5C8-3482E4BBCCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87529DFC-5143-4237-AA8A-2C467DA4052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8016" uniqueCount="5894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8015" uniqueCount="5893">
   <si>
     <t>Categoria</t>
   </si>
@@ -17700,9 +17713,6 @@
   </si>
   <si>
     <t>neutra</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -17769,15 +17779,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18118,8 +18127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView topLeftCell="A792" workbookViewId="0">
-      <selection activeCell="I806" sqref="I806"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18143,13 +18152,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5890</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>5892</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>5891</v>
       </c>
     </row>
@@ -18172,13 +18181,13 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
         <v>2</v>
       </c>
     </row>
@@ -34201,7 +34210,7 @@
       <c r="F803">
         <v>1</v>
       </c>
-      <c r="K803" s="3"/>
+      <c r="K803" s="2"/>
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
@@ -42174,8 +42183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="F582" sqref="F582"/>
+    <sheetView topLeftCell="A574" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G583" sqref="G583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42279,7 +42288,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -50181,7 +50190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>6</v>
       </c>
@@ -50201,7 +50210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>6</v>
       </c>
@@ -50220,11 +50229,8 @@
       <c r="F402">
         <v>1</v>
       </c>
-      <c r="G402" t="s">
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>6</v>
       </c>
@@ -50244,7 +50250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>6</v>
       </c>
@@ -50264,7 +50270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>6</v>
       </c>
@@ -50284,7 +50290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>6</v>
       </c>
@@ -50304,7 +50310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>6</v>
       </c>
@@ -50324,7 +50330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>6</v>
       </c>
@@ -50344,7 +50350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>6</v>
       </c>
@@ -50364,7 +50370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>6</v>
       </c>
@@ -50384,7 +50390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>6</v>
       </c>
@@ -50404,7 +50410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -50424,7 +50430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -50444,7 +50450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>6</v>
       </c>
@@ -50464,7 +50470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>6</v>
       </c>
@@ -50484,7 +50490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -53840,6 +53846,9 @@
       <c r="E583">
         <v>53</v>
       </c>
+      <c r="F583">
+        <v>2</v>
+      </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
@@ -53857,6 +53866,9 @@
       <c r="E584">
         <v>43</v>
       </c>
+      <c r="F584">
+        <v>1</v>
+      </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
@@ -53874,6 +53886,9 @@
       <c r="E585">
         <v>13</v>
       </c>
+      <c r="F585">
+        <v>1</v>
+      </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
@@ -53891,6 +53906,9 @@
       <c r="E586">
         <v>43</v>
       </c>
+      <c r="F586">
+        <v>1</v>
+      </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
@@ -53908,6 +53926,9 @@
       <c r="E587">
         <v>75</v>
       </c>
+      <c r="F587">
+        <v>0</v>
+      </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
@@ -53925,6 +53946,9 @@
       <c r="E588">
         <v>44</v>
       </c>
+      <c r="F588">
+        <v>1</v>
+      </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
@@ -53942,6 +53966,9 @@
       <c r="E589">
         <v>53</v>
       </c>
+      <c r="F589">
+        <v>1</v>
+      </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
@@ -53959,6 +53986,9 @@
       <c r="E590">
         <v>21</v>
       </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
@@ -53976,6 +54006,9 @@
       <c r="E591">
         <v>26</v>
       </c>
+      <c r="F591">
+        <v>1</v>
+      </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
@@ -53993,8 +54026,11 @@
       <c r="E592">
         <v>27</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>6</v>
       </c>
@@ -54010,8 +54046,11 @@
       <c r="E593">
         <v>14</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -54027,8 +54066,11 @@
       <c r="E594">
         <v>65</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>6</v>
       </c>
@@ -54044,8 +54086,11 @@
       <c r="E595">
         <v>54</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>6</v>
       </c>
@@ -54061,8 +54106,11 @@
       <c r="E596">
         <v>15</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>6</v>
       </c>
@@ -54078,8 +54126,11 @@
       <c r="E597">
         <v>59</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>6</v>
       </c>
@@ -54095,8 +54146,11 @@
       <c r="E598">
         <v>29</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>6</v>
       </c>
@@ -54112,8 +54166,11 @@
       <c r="E599">
         <v>38</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>6</v>
       </c>
@@ -54129,8 +54186,11 @@
       <c r="E600">
         <v>91</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>6</v>
       </c>
@@ -54146,8 +54206,11 @@
       <c r="E601">
         <v>99</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>6</v>
       </c>
@@ -54163,8 +54226,11 @@
       <c r="E602">
         <v>49</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>6</v>
       </c>
@@ -54180,8 +54246,11 @@
       <c r="E603">
         <v>74</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>6</v>
       </c>
@@ -54197,8 +54266,11 @@
       <c r="E604">
         <v>30</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>6</v>
       </c>
@@ -54214,8 +54286,11 @@
       <c r="E605">
         <v>62</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>6</v>
       </c>
@@ -54231,8 +54306,11 @@
       <c r="E606">
         <v>47</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>6</v>
       </c>
@@ -54248,8 +54326,11 @@
       <c r="E607">
         <v>28</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>6</v>
       </c>
@@ -54265,8 +54346,11 @@
       <c r="E608">
         <v>93</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>6</v>
       </c>
@@ -54282,8 +54366,11 @@
       <c r="E609">
         <v>73</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>6</v>
       </c>
@@ -54299,8 +54386,11 @@
       <c r="E610">
         <v>74</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>6</v>
       </c>
@@ -54316,8 +54406,11 @@
       <c r="E611">
         <v>59</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>6</v>
       </c>
@@ -54333,8 +54426,11 @@
       <c r="E612">
         <v>92</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>6</v>
       </c>
@@ -54350,8 +54446,11 @@
       <c r="E613">
         <v>20</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>6</v>
       </c>
@@ -54367,8 +54466,11 @@
       <c r="E614">
         <v>97</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>6</v>
       </c>
@@ -54384,8 +54486,11 @@
       <c r="E615">
         <v>42</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>6</v>
       </c>
@@ -54401,8 +54506,11 @@
       <c r="E616">
         <v>79</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>6</v>
       </c>
@@ -54418,8 +54526,11 @@
       <c r="E617">
         <v>12</v>
       </c>
-    </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>6</v>
       </c>
@@ -54435,8 +54546,11 @@
       <c r="E618">
         <v>50</v>
       </c>
-    </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>6</v>
       </c>
@@ -54452,8 +54566,11 @@
       <c r="E619">
         <v>99</v>
       </c>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>6</v>
       </c>
@@ -54469,8 +54586,11 @@
       <c r="E620">
         <v>99</v>
       </c>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>6</v>
       </c>
@@ -54486,8 +54606,11 @@
       <c r="E621">
         <v>86</v>
       </c>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>6</v>
       </c>
@@ -54503,8 +54626,11 @@
       <c r="E622">
         <v>53</v>
       </c>
-    </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>6</v>
       </c>
@@ -54520,8 +54646,11 @@
       <c r="E623">
         <v>90</v>
       </c>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>6</v>
       </c>
@@ -54536,6 +54665,9 @@
       </c>
       <c r="E624">
         <v>58</v>
+      </c>
+      <c r="F624">
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\22-2b-cd-p1-grupo_joaoogp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87529DFC-5143-4237-AA8A-2C467DA4052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F51F05-A453-4CB1-883F-F034C5C47115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10524" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8015" uniqueCount="5893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8012" uniqueCount="5890">
   <si>
     <t>Categoria</t>
   </si>
@@ -17704,15 +17704,6 @@
   </si>
   <si>
     <t>18/08/2022 15:51</t>
-  </si>
-  <si>
-    <t>negativa</t>
-  </si>
-  <si>
-    <t>positiva</t>
-  </si>
-  <si>
-    <t>neutra</t>
   </si>
 </sst>
 </file>
@@ -17779,14 +17770,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18127,13 +18116,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18152,17 +18141,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5890</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5892</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5891</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -18181,17 +18161,8 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -18211,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -18231,7 +18202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -18251,7 +18222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18271,7 +18242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -18291,7 +18262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18311,7 +18282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -18331,7 +18302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -18351,7 +18322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -18371,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -18391,7 +18362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -18411,7 +18382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -18431,7 +18402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -18451,7 +18422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -34271,7 +34242,6 @@
       <c r="F806">
         <v>1</v>
       </c>
-      <c r="I806" s="3"/>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
@@ -42183,7 +42153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H801"/>
   <sheetViews>
-    <sheetView topLeftCell="A574" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G583" sqref="G583"/>
     </sheetView>
   </sheetViews>
@@ -53710,7 +53680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>6</v>
       </c>
@@ -53730,7 +53700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>6</v>
       </c>
@@ -53750,7 +53720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -53770,7 +53740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>6</v>
       </c>
@@ -53790,7 +53760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>6</v>
       </c>
@@ -53810,7 +53780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>6</v>
       </c>
@@ -53830,7 +53800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>6</v>
       </c>
@@ -53849,8 +53819,9 @@
       <c r="F583">
         <v>2</v>
       </c>
-    </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G583" s="2"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>6</v>
       </c>
@@ -53870,7 +53841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>6</v>
       </c>
@@ -53890,7 +53861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>6</v>
       </c>
@@ -53910,7 +53881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>6</v>
       </c>
@@ -53930,7 +53901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>6</v>
       </c>
@@ -53950,7 +53921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>6</v>
       </c>
@@ -53970,7 +53941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>6</v>
       </c>
@@ -53990,7 +53961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>6</v>
       </c>
@@ -54010,7 +53981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>6</v>
       </c>
